--- a/doc/ACAP DG PH 7.6 31-03-21.xlsx
+++ b/doc/ACAP DG PH 7.6 31-03-21.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="93">
   <si>
     <t>##BLOCKS= 1</t>
   </si>
@@ -636,6 +636,112 @@
   <si>
     <t>R² = 0.9812</t>
   </si>
+  <si>
+    <r>
+      <t>y = -427586x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> + 2E+07x - 1E+07</t>
+    </r>
+  </si>
+  <si>
+    <t>R² = 0.9997</t>
+  </si>
+  <si>
+    <t>R² = 0.9651</t>
+  </si>
+  <si>
+    <r>
+      <t>y = -811883x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> + 3E+07x - 2E+07</t>
+    </r>
+  </si>
+  <si>
+    <t>R² = 0.9987</t>
+  </si>
+  <si>
+    <t>R² = 0.993</t>
+  </si>
+  <si>
+    <r>
+      <t>y = -805942x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> + 3E+07x - 1E+07</t>
+    </r>
+  </si>
+  <si>
+    <t>R² = 0.9962</t>
+  </si>
+  <si>
+    <r>
+      <t>y = -2E+06x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> + 3E+07x - 9E+06</t>
+    </r>
+  </si>
+  <si>
+    <t>R² = 0.9706</t>
+  </si>
 </sst>
 </file>
 
@@ -1013,11 +1119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102152064"/>
-        <c:axId val="102153600"/>
+        <c:axId val="101918592"/>
+        <c:axId val="101920128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102152064"/>
+        <c:axId val="101918592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102153600"/>
+        <c:crossAx val="101920128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1034,7 +1140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102153600"/>
+        <c:axId val="101920128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102152064"/>
+        <c:crossAx val="101918592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1258,11 +1364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91043328"/>
-        <c:axId val="91054080"/>
+        <c:axId val="105161856"/>
+        <c:axId val="105163392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91043328"/>
+        <c:axId val="105161856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91054080"/>
+        <c:crossAx val="105163392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1279,7 +1385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91054080"/>
+        <c:axId val="105163392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91043328"/>
+        <c:crossAx val="105161856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1503,11 +1609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78683520"/>
-        <c:axId val="79058048"/>
+        <c:axId val="105190912"/>
+        <c:axId val="105192448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78683520"/>
+        <c:axId val="105190912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79058048"/>
+        <c:crossAx val="105192448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1524,7 +1630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79058048"/>
+        <c:axId val="105192448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,7 +1641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78683520"/>
+        <c:crossAx val="105190912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1748,11 +1854,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="32565504"/>
-        <c:axId val="32572544"/>
+        <c:axId val="105228160"/>
+        <c:axId val="105229696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32565504"/>
+        <c:axId val="105228160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,7 +1867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32572544"/>
+        <c:crossAx val="105229696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1769,7 +1875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32572544"/>
+        <c:axId val="105229696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32565504"/>
+        <c:crossAx val="105228160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1875,6 +1981,16 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>'Dados sem e com ABAP'!$C$122:$C$131</c:f>
@@ -1922,6 +2038,16 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>'Dados sem e com ABAP'!$D$122:$D$131</c:f>
@@ -1973,11 +2099,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="33013120"/>
-        <c:axId val="33358976"/>
+        <c:axId val="105259776"/>
+        <c:axId val="105261312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33013120"/>
+        <c:axId val="105259776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,7 +2112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33358976"/>
+        <c:crossAx val="105261312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1994,7 +2120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33358976"/>
+        <c:axId val="105261312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,7 +2131,497 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33013120"/>
+        <c:crossAx val="105259776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados sem e com ABAP'!$B$132:$B$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados sem e com ABAP'!$C$132:$C$141</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12092844.666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46595405.333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74812064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95275810.666666672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110953354.66666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136992088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137328501.33333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150421925.33333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161444112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>171444800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados sem e com ABAP'!$D$132:$D$141</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10532296.333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41996216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71516428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96038792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117503653.33333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136992088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155561248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174095162.66666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>193715749.33333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>211573312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="65796736"/>
+        <c:axId val="65829504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65796736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65829504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65829504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65796736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados sem e com ABAP'!$B$142:$B$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados sem e com ABAP'!$C$142:$C$151</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14805127.666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49897037.333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74069426.666666672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89196136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100531789.33333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132994093.33333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119669061.33333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128370152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>137859066.66666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147104320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados sem e com ABAP'!$D$142:$D$151</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11703656.666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46628592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74883325.333333328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96577858.666666672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115449752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132994093.33333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150571136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167898874.66666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>185715877.33333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205054170.66666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="65796352"/>
+        <c:axId val="65829120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65796352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65829120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65829120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65796352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2218,11 +2834,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87300352"/>
-        <c:axId val="87314432"/>
+        <c:axId val="101972224"/>
+        <c:axId val="91041792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87300352"/>
+        <c:axId val="101972224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +2847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87314432"/>
+        <c:crossAx val="91041792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2239,7 +2855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87314432"/>
+        <c:axId val="91041792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87300352"/>
+        <c:crossAx val="101972224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2468,11 +3084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102656640"/>
-        <c:axId val="87236992"/>
+        <c:axId val="91060864"/>
+        <c:axId val="91066752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102656640"/>
+        <c:axId val="91060864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,7 +3097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87236992"/>
+        <c:crossAx val="91066752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2489,7 +3105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87236992"/>
+        <c:axId val="91066752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,7 +3116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102656640"/>
+        <c:crossAx val="91060864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2713,11 +3329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87253760"/>
-        <c:axId val="87255296"/>
+        <c:axId val="102507264"/>
+        <c:axId val="102508800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87253760"/>
+        <c:axId val="102507264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,7 +3342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87255296"/>
+        <c:crossAx val="102508800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2734,7 +3350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87255296"/>
+        <c:axId val="102508800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +3361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87253760"/>
+        <c:crossAx val="102507264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2958,11 +3574,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86977920"/>
-        <c:axId val="86979712"/>
+        <c:axId val="102532224"/>
+        <c:axId val="102533760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86977920"/>
+        <c:axId val="102532224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2971,7 +3587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86979712"/>
+        <c:crossAx val="102533760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2979,7 +3595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86979712"/>
+        <c:axId val="102533760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2990,7 +3606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86977920"/>
+        <c:crossAx val="102532224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3203,11 +3819,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="32592256"/>
-        <c:axId val="32625408"/>
+        <c:axId val="104694144"/>
+        <c:axId val="104695680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32592256"/>
+        <c:axId val="104694144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3216,7 +3832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32625408"/>
+        <c:crossAx val="104695680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3224,7 +3840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32625408"/>
+        <c:axId val="104695680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3235,7 +3851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32592256"/>
+        <c:crossAx val="104694144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3448,11 +4064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="30788992"/>
-        <c:axId val="32586368"/>
+        <c:axId val="104989056"/>
+        <c:axId val="104990592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30788992"/>
+        <c:axId val="104989056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3461,7 +4077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32586368"/>
+        <c:crossAx val="104990592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3469,7 +4085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32586368"/>
+        <c:axId val="104990592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,7 +4096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30788992"/>
+        <c:crossAx val="104989056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3693,11 +4309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79106048"/>
-        <c:axId val="79107968"/>
+        <c:axId val="105022208"/>
+        <c:axId val="105023744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79106048"/>
+        <c:axId val="105022208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3706,7 +4322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79107968"/>
+        <c:crossAx val="105023744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3714,7 +4330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79107968"/>
+        <c:axId val="105023744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3725,7 +4341,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79106048"/>
+        <c:crossAx val="105022208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3938,11 +4554,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="32577792"/>
-        <c:axId val="66325120"/>
+        <c:axId val="105043072"/>
+        <c:axId val="105044608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32577792"/>
+        <c:axId val="105043072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,7 +4567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66325120"/>
+        <c:crossAx val="105044608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3959,7 +4575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66325120"/>
+        <c:axId val="105044608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3970,7 +4586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32577792"/>
+        <c:crossAx val="105043072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4364,8 +4980,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4379,6 +4995,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Gráfico 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Gráfico 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -40308,8 +40984,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E112" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122:D131"/>
+    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142:F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -42192,7 +42868,7 @@
         <v>233480954.66666666</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="12.75">
+    <row r="122" spans="1:6" ht="14.25">
       <c r="A122" s="23" t="s">
         <v>34</v>
       </c>
@@ -42204,6 +42880,12 @@
       </c>
       <c r="D122" s="20">
         <v>7866467.333333333</v>
+      </c>
+      <c r="E122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F122" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="12.75">
@@ -42219,6 +42901,12 @@
       <c r="D123" s="20">
         <v>28598150.666666668</v>
       </c>
+      <c r="E123" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="124" spans="1:6" ht="12.75">
       <c r="A124" s="23" t="s">
@@ -42290,7 +42978,7 @@
         <v>126564520</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75">
+    <row r="129" spans="1:6" ht="12.75">
       <c r="A129" s="23" t="s">
         <v>34</v>
       </c>
@@ -42304,7 +42992,7 @@
         <v>142636922.66666666</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75">
+    <row r="130" spans="1:6" ht="12.75">
       <c r="A130" s="23" t="s">
         <v>34</v>
       </c>
@@ -42318,7 +43006,7 @@
         <v>160399024</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75">
+    <row r="131" spans="1:6" ht="12.75">
       <c r="A131" s="23" t="s">
         <v>34</v>
       </c>
@@ -42332,7 +43020,7 @@
         <v>176228826.66666666</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75">
+    <row r="132" spans="1:6" ht="14.25">
       <c r="A132" s="23" t="s">
         <v>35</v>
       </c>
@@ -42345,8 +43033,14 @@
       <c r="D132" s="20">
         <v>10532296.333333334</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="12.75">
+      <c r="E132" t="s">
+        <v>60</v>
+      </c>
+      <c r="F132" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="12.75">
       <c r="A133" s="23" t="s">
         <v>35</v>
       </c>
@@ -42359,8 +43053,14 @@
       <c r="D133" s="20">
         <v>41996216</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="12.75">
+      <c r="E133" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="12.75">
       <c r="A134" s="23" t="s">
         <v>35</v>
       </c>
@@ -42374,7 +43074,7 @@
         <v>71516428</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75">
+    <row r="135" spans="1:6" ht="12.75">
       <c r="A135" s="23" t="s">
         <v>35</v>
       </c>
@@ -42388,7 +43088,7 @@
         <v>96038792</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75">
+    <row r="136" spans="1:6" ht="12.75">
       <c r="A136" s="23" t="s">
         <v>35</v>
       </c>
@@ -42402,7 +43102,7 @@
         <v>117503653.33333333</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75">
+    <row r="137" spans="1:6" ht="12.75">
       <c r="A137" s="23" t="s">
         <v>35</v>
       </c>
@@ -42416,7 +43116,7 @@
         <v>136992088</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75">
+    <row r="138" spans="1:6" ht="12.75">
       <c r="A138" s="23" t="s">
         <v>35</v>
       </c>
@@ -42430,7 +43130,7 @@
         <v>155561248</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75">
+    <row r="139" spans="1:6" ht="12.75">
       <c r="A139" s="23" t="s">
         <v>35</v>
       </c>
@@ -42444,7 +43144,7 @@
         <v>174095162.66666666</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75">
+    <row r="140" spans="1:6" ht="12.75">
       <c r="A140" s="23" t="s">
         <v>35</v>
       </c>
@@ -42458,7 +43158,7 @@
         <v>193715749.33333334</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75">
+    <row r="141" spans="1:6" ht="12.75">
       <c r="A141" s="23" t="s">
         <v>35</v>
       </c>
@@ -42472,7 +43172,7 @@
         <v>211573312</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75">
+    <row r="142" spans="1:6" ht="14.25">
       <c r="A142" s="23" t="s">
         <v>36</v>
       </c>
@@ -42485,8 +43185,14 @@
       <c r="D142" s="20">
         <v>11703656.666666666</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="12.75">
+      <c r="E142" t="s">
+        <v>91</v>
+      </c>
+      <c r="F142" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="12.75">
       <c r="A143" s="23" t="s">
         <v>36</v>
       </c>
@@ -42499,8 +43205,14 @@
       <c r="D143" s="20">
         <v>46628592</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="12.75">
+      <c r="E143" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="12.75">
       <c r="A144" s="23" t="s">
         <v>36</v>
       </c>

--- a/doc/ACAP DG PH 7.6 31-03-21.xlsx
+++ b/doc/ACAP DG PH 7.6 31-03-21.xlsx
@@ -1124,11 +1124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101894400"/>
-        <c:axId val="101900288"/>
+        <c:axId val="95279744"/>
+        <c:axId val="95281536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101894400"/>
+        <c:axId val="95279744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +1137,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101900288"/>
+        <c:crossAx val="95281536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1145,7 +1145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101900288"/>
+        <c:axId val="95281536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101894400"/>
+        <c:crossAx val="95279744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1369,11 +1369,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106784256"/>
-        <c:axId val="106785792"/>
+        <c:axId val="105150336"/>
+        <c:axId val="105151872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106784256"/>
+        <c:axId val="105150336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106785792"/>
+        <c:crossAx val="105151872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1390,7 +1390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106785792"/>
+        <c:axId val="105151872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106784256"/>
+        <c:crossAx val="105150336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1614,11 +1614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106813312"/>
-        <c:axId val="106814848"/>
+        <c:axId val="105175296"/>
+        <c:axId val="105193472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106813312"/>
+        <c:axId val="105175296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1627,7 +1627,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106814848"/>
+        <c:crossAx val="105193472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1635,7 +1635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106814848"/>
+        <c:axId val="105193472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,7 +1646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106813312"/>
+        <c:crossAx val="105175296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1859,11 +1859,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106457344"/>
-        <c:axId val="106467328"/>
+        <c:axId val="105212544"/>
+        <c:axId val="105222528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106457344"/>
+        <c:axId val="105212544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,7 +1872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106467328"/>
+        <c:crossAx val="105222528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1880,7 +1880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106467328"/>
+        <c:axId val="105222528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,7 +1891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106457344"/>
+        <c:crossAx val="105212544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2104,11 +2104,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106564224"/>
-        <c:axId val="106574208"/>
+        <c:axId val="105389056"/>
+        <c:axId val="105399040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106564224"/>
+        <c:axId val="105389056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,7 +2117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106574208"/>
+        <c:crossAx val="105399040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2125,7 +2125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106574208"/>
+        <c:axId val="105399040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,7 +2136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106564224"/>
+        <c:crossAx val="105389056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2349,11 +2349,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106601472"/>
-        <c:axId val="106619648"/>
+        <c:axId val="105426304"/>
+        <c:axId val="105440384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106601472"/>
+        <c:axId val="105426304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,7 +2362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106619648"/>
+        <c:crossAx val="105440384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2370,7 +2370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106619648"/>
+        <c:axId val="105440384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,7 +2381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106601472"/>
+        <c:crossAx val="105426304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2594,11 +2594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106646912"/>
-        <c:axId val="106665088"/>
+        <c:axId val="105484288"/>
+        <c:axId val="105485824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106646912"/>
+        <c:axId val="105484288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2607,7 +2607,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106665088"/>
+        <c:crossAx val="105485824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2615,7 +2615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106665088"/>
+        <c:axId val="105485824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,7 +2626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106646912"/>
+        <c:crossAx val="105484288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2839,11 +2839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102050432"/>
-        <c:axId val="102060416"/>
+        <c:axId val="96750592"/>
+        <c:axId val="96760576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102050432"/>
+        <c:axId val="96750592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102060416"/>
+        <c:crossAx val="96760576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2860,7 +2860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102060416"/>
+        <c:axId val="96760576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +2871,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102050432"/>
+        <c:crossAx val="96750592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3089,11 +3089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106368000"/>
-        <c:axId val="106373888"/>
+        <c:axId val="102305152"/>
+        <c:axId val="102311040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106368000"/>
+        <c:axId val="102305152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,7 +3102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106373888"/>
+        <c:crossAx val="102311040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3110,7 +3110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106373888"/>
+        <c:axId val="102311040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,7 +3121,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106368000"/>
+        <c:crossAx val="102305152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3334,11 +3334,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106398848"/>
-        <c:axId val="106400384"/>
+        <c:axId val="102350848"/>
+        <c:axId val="102352384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106398848"/>
+        <c:axId val="102350848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3347,7 +3347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106400384"/>
+        <c:crossAx val="102352384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3355,7 +3355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106400384"/>
+        <c:axId val="102352384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3366,7 +3366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106398848"/>
+        <c:crossAx val="102350848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3579,11 +3579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106125184"/>
-        <c:axId val="106126720"/>
+        <c:axId val="105271680"/>
+        <c:axId val="105273216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106125184"/>
+        <c:axId val="105271680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3592,7 +3592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106126720"/>
+        <c:crossAx val="105273216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3600,7 +3600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106126720"/>
+        <c:axId val="105273216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3611,7 +3611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106125184"/>
+        <c:crossAx val="105271680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3824,11 +3824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106154240"/>
-        <c:axId val="106237952"/>
+        <c:axId val="104928384"/>
+        <c:axId val="104929920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106154240"/>
+        <c:axId val="104928384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,7 +3837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106237952"/>
+        <c:crossAx val="104929920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3845,7 +3845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106237952"/>
+        <c:axId val="104929920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3856,7 +3856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106154240"/>
+        <c:crossAx val="104928384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4069,11 +4069,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106267392"/>
-        <c:axId val="106268928"/>
+        <c:axId val="104960768"/>
+        <c:axId val="104962304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106267392"/>
+        <c:axId val="104960768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,7 +4082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106268928"/>
+        <c:crossAx val="104962304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4090,7 +4090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106268928"/>
+        <c:axId val="104962304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4101,7 +4101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106267392"/>
+        <c:crossAx val="104960768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4314,11 +4314,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106304256"/>
-        <c:axId val="106305792"/>
+        <c:axId val="105075840"/>
+        <c:axId val="105077376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106304256"/>
+        <c:axId val="105075840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,7 +4327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106305792"/>
+        <c:crossAx val="105077376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4335,7 +4335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106305792"/>
+        <c:axId val="105077376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4346,7 +4346,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106304256"/>
+        <c:crossAx val="105075840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4559,11 +4559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106349696"/>
-        <c:axId val="106351232"/>
+        <c:axId val="105104896"/>
+        <c:axId val="105106432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106349696"/>
+        <c:axId val="105104896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4572,7 +4572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106351232"/>
+        <c:crossAx val="105106432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4580,7 +4580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106351232"/>
+        <c:axId val="105106432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4591,7 +4591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106349696"/>
+        <c:crossAx val="105104896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9446,7 +9446,7 @@
   </sheetPr>
   <dimension ref="A1:C624"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A238" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -41003,8 +41003,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41012,6 +41012,7 @@
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="34.5703125" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41056,7 +41057,9 @@
       <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="22">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -41223,9 +41226,18 @@
       <c r="D11" s="20">
         <v>176456666.66666666</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="E11" s="26">
+        <f>E4/3*$G$2^3+E5/2*$G$2^2+E6*$G$2</f>
+        <v>3383333333.333334</v>
+      </c>
+      <c r="F11" s="26">
+        <f>F4/3*$G$2^3+F5/2*$G$2^2+F6*$G$2</f>
+        <v>3777254541.666666</v>
+      </c>
+      <c r="G11" s="26">
+        <f>(F11-E11)/E11</f>
+        <v>0.11642991379310305</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
@@ -41790,6 +41802,12 @@
       <c r="D44" s="20">
         <v>88420013.333333328</v>
       </c>
+      <c r="E44" s="27">
+        <v>-2000000</v>
+      </c>
+      <c r="F44" s="27">
+        <v>-1000000</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
@@ -41804,6 +41822,12 @@
       <c r="D45" s="20">
         <v>106856800</v>
       </c>
+      <c r="E45" s="27">
+        <v>40000000</v>
+      </c>
+      <c r="F45" s="27">
+        <v>30000000</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
@@ -41818,6 +41842,12 @@
       <c r="D46" s="20">
         <v>122374058.66666667</v>
       </c>
+      <c r="E46" s="27">
+        <v>-9000000</v>
+      </c>
+      <c r="F46" s="27">
+        <v>-7000000</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
@@ -41942,6 +41972,12 @@
       <c r="D54" s="20">
         <v>68546801.333333328</v>
       </c>
+      <c r="E54" s="27">
+        <v>-2000000</v>
+      </c>
+      <c r="F54">
+        <v>-836107</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
@@ -41956,6 +41992,12 @@
       <c r="D55" s="20">
         <v>89735528</v>
       </c>
+      <c r="E55" s="27">
+        <v>30000000</v>
+      </c>
+      <c r="F55" s="27">
+        <v>30000000</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
@@ -41970,6 +42012,12 @@
       <c r="D56" s="20">
         <v>107951994.66666667</v>
       </c>
+      <c r="E56" s="27">
+        <v>-20000000</v>
+      </c>
+      <c r="F56" s="27">
+        <v>-10000000</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
@@ -42094,6 +42142,12 @@
       <c r="D64" s="20">
         <v>83319600</v>
       </c>
+      <c r="E64" s="27">
+        <v>-2000000</v>
+      </c>
+      <c r="F64" s="27">
+        <v>-1000000</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
@@ -42108,6 +42162,12 @@
       <c r="D65" s="20">
         <v>101628520</v>
       </c>
+      <c r="E65" s="27">
+        <v>30000000</v>
+      </c>
+      <c r="F65" s="27">
+        <v>30000000</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
@@ -42122,6 +42182,12 @@
       <c r="D66" s="20">
         <v>117678218.66666667</v>
       </c>
+      <c r="E66" s="27">
+        <v>-10000000</v>
+      </c>
+      <c r="F66" s="27">
+        <v>-8000000</v>
+      </c>
     </row>
     <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
@@ -42246,6 +42312,12 @@
       <c r="D74" s="20">
         <v>67506906.666666672</v>
       </c>
+      <c r="E74" s="27">
+        <v>-2000000</v>
+      </c>
+      <c r="F74">
+        <v>-979724</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
@@ -42260,6 +42332,12 @@
       <c r="D75" s="20">
         <v>90346386.666666672</v>
       </c>
+      <c r="E75" s="27">
+        <v>30000000</v>
+      </c>
+      <c r="F75" s="27">
+        <v>30000000</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
@@ -42274,6 +42352,12 @@
       <c r="D76" s="20">
         <v>108191776</v>
       </c>
+      <c r="E76" s="27">
+        <v>-20000000</v>
+      </c>
+      <c r="F76" s="27">
+        <v>-20000000</v>
+      </c>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
@@ -42398,6 +42482,12 @@
       <c r="D84" s="20">
         <v>48498204</v>
       </c>
+      <c r="E84">
+        <v>-948241</v>
+      </c>
+      <c r="F84">
+        <v>-428074</v>
+      </c>
     </row>
     <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
@@ -42412,6 +42502,12 @@
       <c r="D85" s="20">
         <v>68797344</v>
       </c>
+      <c r="E85" s="27">
+        <v>30000000</v>
+      </c>
+      <c r="F85" s="27">
+        <v>20000000</v>
+      </c>
     </row>
     <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
@@ -42426,6 +42522,12 @@
       <c r="D86" s="20">
         <v>88148970.666666672</v>
       </c>
+      <c r="E86" s="27">
+        <v>-20000000</v>
+      </c>
+      <c r="F86" s="27">
+        <v>-20000000</v>
+      </c>
     </row>
     <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
@@ -42550,6 +42652,12 @@
       <c r="D94" s="20">
         <v>82170426.666666672</v>
       </c>
+      <c r="E94" s="27">
+        <v>-2000000</v>
+      </c>
+      <c r="F94" s="27">
+        <v>-1000000</v>
+      </c>
     </row>
     <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
@@ -42564,6 +42672,12 @@
       <c r="D95" s="20">
         <v>104843181.33333333</v>
       </c>
+      <c r="E95" s="27">
+        <v>40000000</v>
+      </c>
+      <c r="F95" s="27">
+        <v>30000000</v>
+      </c>
     </row>
     <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
@@ -42578,6 +42692,12 @@
       <c r="D96" s="20">
         <v>122523629.33333333</v>
       </c>
+      <c r="E96" s="27">
+        <v>-20000000</v>
+      </c>
+      <c r="F96" s="27">
+        <v>-10000000</v>
+      </c>
     </row>
     <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
@@ -42702,6 +42822,12 @@
       <c r="D104" s="20">
         <v>68670088</v>
       </c>
+      <c r="E104" s="27">
+        <v>-1000000</v>
+      </c>
+      <c r="F104">
+        <v>-939908</v>
+      </c>
     </row>
     <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="s">
@@ -42716,6 +42842,12 @@
       <c r="D105" s="20">
         <v>90714680</v>
       </c>
+      <c r="E105" s="27">
+        <v>30000000</v>
+      </c>
+      <c r="F105" s="27">
+        <v>30000000</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
@@ -42730,6 +42862,12 @@
       <c r="D106" s="20">
         <v>109522248</v>
       </c>
+      <c r="E106" s="27">
+        <v>-20000000</v>
+      </c>
+      <c r="F106" s="27">
+        <v>-20000000</v>
+      </c>
     </row>
     <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
@@ -42854,6 +42992,12 @@
       <c r="D114" s="20">
         <v>85882189.333333328</v>
       </c>
+      <c r="E114" s="27">
+        <v>-2000000</v>
+      </c>
+      <c r="F114">
+        <v>-967435</v>
+      </c>
     </row>
     <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="s">
@@ -42868,6 +43012,12 @@
       <c r="D115" s="20">
         <v>110943453.33333333</v>
       </c>
+      <c r="E115" s="27">
+        <v>40000000</v>
+      </c>
+      <c r="F115" s="27">
+        <v>30000000</v>
+      </c>
     </row>
     <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="s">
@@ -42882,6 +43032,12 @@
       <c r="D116" s="20">
         <v>132074026.66666667</v>
       </c>
+      <c r="E116" s="27">
+        <v>-20000000</v>
+      </c>
+      <c r="F116" s="27">
+        <v>-10000000</v>
+      </c>
     </row>
     <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="s">
@@ -43006,6 +43162,12 @@
       <c r="D124" s="20">
         <v>51911365.333333336</v>
       </c>
+      <c r="E124" s="27">
+        <v>-1000000</v>
+      </c>
+      <c r="F124">
+        <v>-427586</v>
+      </c>
     </row>
     <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="s">
@@ -43020,6 +43182,12 @@
       <c r="D125" s="20">
         <v>72927738.666666672</v>
       </c>
+      <c r="E125" s="27">
+        <v>30000000</v>
+      </c>
+      <c r="F125" s="27">
+        <v>20000000</v>
+      </c>
     </row>
     <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="s">
@@ -43034,6 +43202,12 @@
       <c r="D126" s="20">
         <v>91642576</v>
       </c>
+      <c r="E126" s="27">
+        <v>-20000000</v>
+      </c>
+      <c r="F126" s="27">
+        <v>-10000000</v>
+      </c>
     </row>
     <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="s">
@@ -43158,6 +43332,12 @@
       <c r="D134" s="20">
         <v>71516428</v>
       </c>
+      <c r="E134" s="27">
+        <v>-2000000</v>
+      </c>
+      <c r="F134">
+        <v>-811883</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="23" t="s">
@@ -43172,6 +43352,12 @@
       <c r="D135" s="20">
         <v>96038792</v>
       </c>
+      <c r="E135" s="27">
+        <v>30000000</v>
+      </c>
+      <c r="F135" s="27">
+        <v>30000000</v>
+      </c>
     </row>
     <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="23" t="s">
@@ -43186,6 +43372,12 @@
       <c r="D136" s="20">
         <v>117503653.33333333</v>
       </c>
+      <c r="E136" s="27">
+        <v>-20000000</v>
+      </c>
+      <c r="F136" s="27">
+        <v>-20000000</v>
+      </c>
     </row>
     <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="23" t="s">
@@ -43310,8 +43502,14 @@
       <c r="D144" s="20">
         <v>74883325.333333328</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E144" s="27">
+        <v>-2000000</v>
+      </c>
+      <c r="F144">
+        <v>-805942</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="s">
         <v>36</v>
       </c>
@@ -43324,8 +43522,14 @@
       <c r="D145" s="20">
         <v>96577858.666666672</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E145" s="27">
+        <v>30000000</v>
+      </c>
+      <c r="F145" s="27">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="s">
         <v>36</v>
       </c>
@@ -43338,8 +43542,14 @@
       <c r="D146" s="20">
         <v>115449752</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E146" s="27">
+        <v>-9000000</v>
+      </c>
+      <c r="F146" s="27">
+        <v>-10000000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="s">
         <v>36</v>
       </c>
@@ -43353,7 +43563,7 @@
         <v>132994093.33333333</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="23" t="s">
         <v>36</v>
       </c>
@@ -43367,7 +43577,7 @@
         <v>150571136</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="23" t="s">
         <v>36</v>
       </c>
@@ -43381,7 +43591,7 @@
         <v>167898874.66666666</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="s">
         <v>36</v>
       </c>
@@ -43395,7 +43605,7 @@
         <v>185715877.33333334</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="s">
         <v>36</v>
       </c>
@@ -43409,55 +43619,55 @@
         <v>205054170.66666666</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="24"/>
       <c r="B152" s="24"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
     </row>
-    <row r="153" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="24"/>
       <c r="B153" s="24"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
     </row>
-    <row r="154" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="24"/>
       <c r="B154" s="24"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
     </row>
-    <row r="155" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="24"/>
       <c r="B155" s="24"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
     </row>
-    <row r="156" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="24"/>
       <c r="B156" s="24"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
     </row>
-    <row r="157" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="24"/>
       <c r="B157" s="24"/>
       <c r="C157" s="20"/>
       <c r="D157" s="20"/>
     </row>
-    <row r="158" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="24"/>
       <c r="B158" s="24"/>
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
     </row>
-    <row r="159" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="24"/>
       <c r="B159" s="24"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
     </row>
-    <row r="160" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="24"/>
       <c r="B160" s="24"/>
       <c r="C160" s="20"/>

--- a/doc/ACAP DG PH 7.6 31-03-21.xlsx
+++ b/doc/ACAP DG PH 7.6 31-03-21.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="ACAP DG PH 7.6 31-03-21.xls" sheetId="1" r:id="rId1"/>
-    <sheet name="auxiliar" sheetId="2" r:id="rId2"/>
+    <sheet name="auxiliar" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Dados planilhados" sheetId="3" r:id="rId3"/>
     <sheet name="Dados sem e com ABAP" sheetId="4" r:id="rId4"/>
-    <sheet name="Plan1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dados planilhados'!$A$1:$G$1249</definedName>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="60">
   <si>
     <t>##BLOCKS= 1</t>
   </si>
@@ -148,54 +147,7 @@
     <t>Área relativa</t>
   </si>
   <si>
-    <r>
-      <t>y = -972437x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E+07x - 2E+07</t>
-    </r>
-  </si>
-  <si>
     <t>R² = 0.9982</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -1E+06x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E+07x - 2E+07</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9679</t>
   </si>
   <si>
     <r>
@@ -223,9 +175,6 @@
     <t>R² = 0.9972</t>
   </si>
   <si>
-    <t>R² = 0.9675</t>
-  </si>
-  <si>
     <r>
       <t>y = -1E+06x</t>
     </r>
@@ -251,8 +200,17 @@
     <t>R² = 0.9878</t>
   </si>
   <si>
+    <t>R² = 0.9994</t>
+  </si>
+  <si>
+    <t>R² = 0.9873</t>
+  </si>
+  <si>
+    <t>R² = 0.997</t>
+  </si>
+  <si>
     <r>
-      <t>y = -2E+06x</t>
+      <t>y = -971972x</t>
     </r>
     <r>
       <rPr>
@@ -269,114 +227,11 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> + 4E+07x - 9E+06</t>
+      <t xml:space="preserve"> + 2E+07x - 1E+07</t>
     </r>
   </si>
   <si>
-    <t>R² = 0.9513</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -444247x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 2E+07x - 2E+07</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9994</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -1E+06x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 2E+07x - 2E+07</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9382</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -1E+06x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E+07x - 7E+06</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9873</t>
-  </si>
-  <si>
-    <t>R² = 0.9723</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -836107x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E+07x - 1E+07</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9984</t>
+    <t>R² = 0.9951</t>
   </si>
   <si>
     <r>
@@ -397,11 +252,62 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> + 3E+07x - 2E+07</t>
+      <t xml:space="preserve"> + 3E+07x - 1E+06</t>
     </r>
   </si>
   <si>
-    <t>R² = 0.9359</t>
+    <t>R² = 0.9649</t>
+  </si>
+  <si>
+    <r>
+      <t>y = -444247x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 2E+07x - 2E+07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y = -700684x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 2E+07x - 1E+07</t>
+    </r>
+  </si>
+  <si>
+    <t>R² = 0.9986</t>
   </si>
   <si>
     <r>
@@ -413,6 +319,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -421,12 +328,10 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E+07x - 8E+06</t>
+      <t xml:space="preserve"> + 3E+07x - 7E+06</t>
     </r>
-  </si>
-  <si>
-    <t>R² = 0.9908</t>
   </si>
   <si>
     <r>
@@ -438,6 +343,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -446,16 +352,17 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E+07x - 1E+07</t>
+      <t xml:space="preserve"> + 4E+07x - 9E+06</t>
     </r>
   </si>
   <si>
-    <t>R² = 0.9553</t>
+    <t>R² = 0.9741</t>
   </si>
   <si>
     <r>
-      <t>y = -979724x</t>
+      <t>y = -972437x</t>
     </r>
     <r>
       <rPr>
@@ -463,6 +370,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -471,65 +379,10 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 3E+07x - 2E+07</t>
     </r>
-  </si>
-  <si>
-    <t>R² = 0.9979</t>
-  </si>
-  <si>
-    <t>R² = 0.9657</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -428074x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 2E+07x - 2E+07</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9998</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -948241x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E+07x - 2E+07</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9974</t>
   </si>
   <si>
     <r>
@@ -541,6 +394,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -549,199 +403,10 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E+07x - 1E+07</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9931</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -2E+06x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 4E+07x - 2E+07</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9704</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -939908x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E+07x - 2E+07</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9983</t>
-  </si>
-  <si>
-    <t>R² = 0.9641</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -967435x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E+07x - 1E+07</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9955</t>
-  </si>
-  <si>
-    <t>R² = 0.9812</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -427586x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 2E+07x - 1E+07</t>
     </r>
-  </si>
-  <si>
-    <t>R² = 0.9997</t>
-  </si>
-  <si>
-    <t>R² = 0.9651</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -811883x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E+07x - 2E+07</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9987</t>
-  </si>
-  <si>
-    <t>R² = 0.993</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -805942x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E+07x - 1E+07</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9962</t>
-  </si>
-  <si>
-    <r>
-      <t>y = -2E+06x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E+07x - 9E+06</t>
-    </r>
-  </si>
-  <si>
-    <t>R² = 0.9706</t>
   </si>
 </sst>
 </file>
@@ -751,7 +416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -810,6 +475,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -861,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -914,6 +592,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,7 +725,7 @@
                   <c:v>83317373.333333328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118727938.66666667</c:v>
+                  <c:v>93797328</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>102516362.66666667</c:v>
@@ -1124,11 +811,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95279744"/>
-        <c:axId val="95281536"/>
+        <c:axId val="127774720"/>
+        <c:axId val="127777408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95279744"/>
+        <c:axId val="127774720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95281536"/>
+        <c:crossAx val="127777408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1145,7 +832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95281536"/>
+        <c:axId val="127777408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95279744"/>
+        <c:crossAx val="127774720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1283,7 +970,7 @@
                   <c:v>105221613.33333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>138481877.33333334</c:v>
+                  <c:v>114427186.66666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>122330229.33333333</c:v>
@@ -1369,11 +1056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105150336"/>
-        <c:axId val="105151872"/>
+        <c:axId val="129724800"/>
+        <c:axId val="129726336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105150336"/>
+        <c:axId val="129724800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105151872"/>
+        <c:crossAx val="129726336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1390,7 +1077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105151872"/>
+        <c:axId val="129726336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105150336"/>
+        <c:crossAx val="129724800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1528,7 +1215,7 @@
                   <c:v>88198184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127010714.66666667</c:v>
+                  <c:v>99471197.333333328</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>109503930.66666667</c:v>
@@ -1614,11 +1301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105175296"/>
-        <c:axId val="105193472"/>
+        <c:axId val="129770240"/>
+        <c:axId val="129771776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105175296"/>
+        <c:axId val="129770240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1627,7 +1314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105193472"/>
+        <c:crossAx val="129771776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1635,7 +1322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105193472"/>
+        <c:axId val="129771776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,7 +1333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105175296"/>
+        <c:crossAx val="129770240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1773,7 +1460,7 @@
                   <c:v>119771842.66666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151755248</c:v>
+                  <c:v>131913200</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>141993669.33333334</c:v>
@@ -1859,11 +1546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105212544"/>
-        <c:axId val="105222528"/>
+        <c:axId val="129823872"/>
+        <c:axId val="129825408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105212544"/>
+        <c:axId val="129823872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,7 +1559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105222528"/>
+        <c:crossAx val="129825408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1880,7 +1567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105222528"/>
+        <c:axId val="129825408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,7 +1578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105212544"/>
+        <c:crossAx val="129823872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2018,7 +1705,7 @@
                   <c:v>73379710.666666672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108963384</c:v>
+                  <c:v>83750509.333333328</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>93858714.666666672</c:v>
@@ -2104,11 +1791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105389056"/>
-        <c:axId val="105399040"/>
+        <c:axId val="130037248"/>
+        <c:axId val="130038784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105389056"/>
+        <c:axId val="130037248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,7 +1804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105399040"/>
+        <c:crossAx val="130038784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2125,7 +1812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105399040"/>
+        <c:axId val="130038784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,7 +1823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105389056"/>
+        <c:crossAx val="130037248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2263,7 +1950,7 @@
                   <c:v>110953354.66666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>136992088</c:v>
+                  <c:v>124768586.66666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>137328501.33333334</c:v>
@@ -2349,11 +2036,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105426304"/>
-        <c:axId val="105440384"/>
+        <c:axId val="130140032"/>
+        <c:axId val="130141568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105426304"/>
+        <c:axId val="130140032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,7 +2049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105440384"/>
+        <c:crossAx val="130141568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2370,7 +2057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105440384"/>
+        <c:axId val="130141568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,7 +2068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105426304"/>
+        <c:crossAx val="130140032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2508,7 +2195,7 @@
                   <c:v>100531789.33333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>132994093.33333333</c:v>
+                  <c:v>110132013.33333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>119669061.33333333</c:v>
@@ -2594,11 +2281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105484288"/>
-        <c:axId val="105485824"/>
+        <c:axId val="130234624"/>
+        <c:axId val="130273280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105484288"/>
+        <c:axId val="130234624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2607,7 +2294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105485824"/>
+        <c:crossAx val="130273280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2615,7 +2302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105485824"/>
+        <c:axId val="130273280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,7 +2313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105484288"/>
+        <c:crossAx val="130234624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2753,7 +2440,7 @@
                   <c:v>81218536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116329162.66666667</c:v>
+                  <c:v>90806050.666666672</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>99910272</c:v>
@@ -2839,11 +2526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96750592"/>
-        <c:axId val="96760576"/>
+        <c:axId val="127820544"/>
+        <c:axId val="127822080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96750592"/>
+        <c:axId val="127820544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96760576"/>
+        <c:crossAx val="127822080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2860,7 +2547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96760576"/>
+        <c:axId val="127822080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +2558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96750592"/>
+        <c:crossAx val="127820544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2998,7 +2685,7 @@
                   <c:v>120026101.33333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>158117072</c:v>
+                  <c:v>128628168</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>136846914.66666666</c:v>
@@ -3089,11 +2776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102305152"/>
-        <c:axId val="102311040"/>
+        <c:axId val="128231296"/>
+        <c:axId val="128488576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102305152"/>
+        <c:axId val="128231296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,7 +2789,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102311040"/>
+        <c:crossAx val="128488576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3110,7 +2797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102311040"/>
+        <c:axId val="128488576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,7 +2808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102305152"/>
+        <c:crossAx val="128231296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3334,11 +3021,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102350848"/>
-        <c:axId val="102352384"/>
+        <c:axId val="129074688"/>
+        <c:axId val="129081728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102350848"/>
+        <c:axId val="129074688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3347,7 +3034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102352384"/>
+        <c:crossAx val="129081728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3355,7 +3042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102352384"/>
+        <c:axId val="129081728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3366,7 +3053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102350848"/>
+        <c:crossAx val="129074688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3404,7 +3091,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16719841980012853"/>
+          <c:y val="1.7747633015334378E-2"/>
+          <c:w val="0.45962995585456695"/>
+          <c:h val="0.88974438366360409"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3493,7 +3190,7 @@
                   <c:v>130409776</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137380368</c:v>
+                  <c:v>139943829.33333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>149591946.66666666</c:v>
@@ -3579,11 +3276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105271680"/>
-        <c:axId val="105273216"/>
+        <c:axId val="129245952"/>
+        <c:axId val="129378944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105271680"/>
+        <c:axId val="129245952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3592,7 +3289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105273216"/>
+        <c:crossAx val="129378944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3600,7 +3297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105273216"/>
+        <c:axId val="129378944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3611,7 +3308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105271680"/>
+        <c:crossAx val="129245952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3738,7 +3435,7 @@
                   <c:v>81211880</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>124519360</c:v>
+                  <c:v>90253381.333333328</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>98263768</c:v>
@@ -3824,11 +3521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104928384"/>
-        <c:axId val="104929920"/>
+        <c:axId val="129955712"/>
+        <c:axId val="129957248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104928384"/>
+        <c:axId val="129955712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,7 +3534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104929920"/>
+        <c:crossAx val="129957248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3845,7 +3542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104929920"/>
+        <c:axId val="129957248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3856,7 +3553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104928384"/>
+        <c:crossAx val="129955712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3983,7 +3680,7 @@
                   <c:v>95375088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>132643925.33333333</c:v>
+                  <c:v>104052013.33333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>112252269.33333333</c:v>
@@ -4069,11 +3766,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104960768"/>
-        <c:axId val="104962304"/>
+        <c:axId val="129375232"/>
+        <c:axId val="129413888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104960768"/>
+        <c:axId val="129375232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,7 +3779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104962304"/>
+        <c:crossAx val="129413888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4090,7 +3787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104962304"/>
+        <c:axId val="129413888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4101,7 +3798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104960768"/>
+        <c:crossAx val="129375232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4228,7 +3925,7 @@
                   <c:v>89346066.666666672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>124294634.66666667</c:v>
+                  <c:v>99562029.333333328</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>107292629.33333333</c:v>
@@ -4314,11 +4011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105075840"/>
-        <c:axId val="105077376"/>
+        <c:axId val="129428864"/>
+        <c:axId val="129447040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105075840"/>
+        <c:axId val="129428864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,7 +4024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105077376"/>
+        <c:crossAx val="129447040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4335,7 +4032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105077376"/>
+        <c:axId val="129447040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4346,7 +4043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105075840"/>
+        <c:crossAx val="129428864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4473,7 +4170,7 @@
                   <c:v>85431434.666666672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105321026.66666667</c:v>
+                  <c:v>98270952</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>110231024</c:v>
@@ -4559,11 +4256,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105104896"/>
-        <c:axId val="105106432"/>
+        <c:axId val="129650688"/>
+        <c:axId val="129652224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105104896"/>
+        <c:axId val="129650688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4572,7 +4269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105106432"/>
+        <c:crossAx val="129652224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4580,7 +4277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105106432"/>
+        <c:axId val="129652224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4591,7 +4288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105104896"/>
+        <c:crossAx val="129650688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4626,7 +4323,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4655,8 +4352,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4685,8 +4382,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4715,8 +4412,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129887</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4738,15 +4435,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>63213</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>787113</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>8659</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5271,8 +4968,8 @@
   </sheetPr>
   <dimension ref="A1:AE122"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9446,7 +9143,7 @@
   </sheetPr>
   <dimension ref="A1:C624"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -14647,7 +14344,7 @@
   <dimension ref="A1:H2057"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64:E928"/>
+      <selection activeCell="E55" sqref="E55:E919"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15620,7 +15317,7 @@
         <v>7886740</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>37</v>
       </c>
@@ -15782,7 +15479,7 @@
         <v>7029456</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>37</v>
       </c>
@@ -17346,7 +17043,7 @@
         <v>32100598</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>37</v>
       </c>
@@ -17508,7 +17205,7 @@
         <v>22635764</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
         <v>37</v>
       </c>
@@ -19072,7 +18769,7 @@
         <v>61734376</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="14" t="s">
         <v>37</v>
       </c>
@@ -19234,7 +18931,7 @@
         <v>43443688</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="14" t="s">
         <v>37</v>
       </c>
@@ -20798,7 +20495,7 @@
         <v>84985952</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="14" t="s">
         <v>37</v>
       </c>
@@ -20960,7 +20657,7 @@
         <v>63643604</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="14" t="s">
         <v>37</v>
       </c>
@@ -22524,7 +22221,7 @@
         <v>103116848</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="14" t="s">
         <v>37</v>
       </c>
@@ -22686,7 +22383,7 @@
         <v>81553672</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="14" t="s">
         <v>37</v>
       </c>
@@ -24250,7 +23947,7 @@
         <v>118410208</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="14" t="s">
         <v>37</v>
       </c>
@@ -24412,7 +24109,7 @@
         <v>98112536</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="14" t="s">
         <v>37</v>
       </c>
@@ -25976,7 +25673,7 @@
         <v>132789616</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="14" t="s">
         <v>37</v>
       </c>
@@ -26138,7 +25835,7 @@
         <v>114504680</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="14" t="s">
         <v>37</v>
       </c>
@@ -27702,7 +27399,7 @@
         <v>147172288</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="14" t="s">
         <v>37</v>
       </c>
@@ -27864,7 +27561,7 @@
         <v>129165120</v>
       </c>
     </row>
-    <row r="736" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" s="14" t="s">
         <v>37</v>
       </c>
@@ -29428,7 +29125,7 @@
         <v>160871424</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="14" t="s">
         <v>37</v>
       </c>
@@ -29590,7 +29287,7 @@
         <v>143166720</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" s="14" t="s">
         <v>37</v>
       </c>
@@ -31154,7 +30851,7 @@
         <v>174433424</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="14" t="s">
         <v>37</v>
       </c>
@@ -31316,7 +31013,7 @@
         <v>157091248</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" s="14" t="s">
         <v>37</v>
       </c>
@@ -32880,7 +32577,7 @@
         <v>187780272</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1015" s="14" t="s">
         <v>37</v>
       </c>
@@ -33042,7 +32739,7 @@
         <v>170880688</v>
       </c>
     </row>
-    <row r="1024" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024" s="14" t="s">
         <v>37</v>
       </c>
@@ -34606,7 +34303,7 @@
         <v>200421216</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1111" s="14" t="s">
         <v>37</v>
       </c>
@@ -34756,7 +34453,7 @@
         <v>184091504</v>
       </c>
     </row>
-    <row r="1120" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1120" s="14" t="s">
         <v>37</v>
       </c>
@@ -36212,7 +35909,7 @@
         <v>213918320</v>
       </c>
     </row>
-    <row r="1207" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1207" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1207" s="14" t="s">
         <v>37</v>
       </c>
@@ -36362,7 +36059,7 @@
         <v>197625360</v>
       </c>
     </row>
-    <row r="1216" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1216" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1216" s="14" t="s">
         <v>37</v>
       </c>
@@ -40983,7 +40680,7 @@
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="C4"/>
+        <filter val="C1"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
@@ -41001,10 +40698,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41012,10 +40709,10 @@
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="34.5703125" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
@@ -41038,7 +40735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
@@ -41051,17 +40748,21 @@
       <c r="D2" s="20">
         <v>8143819.333333333</v>
       </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
+      <c r="E2" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="G2" s="22">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="M2" t="b">
+        <f>IF(C2=D2,"igual")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>22</v>
       </c>
@@ -41074,15 +40775,19 @@
       <c r="D3" s="20">
         <v>33290650.666666668</v>
       </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>41</v>
+      <c r="E3" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M3" t="b">
+        <f t="shared" ref="M3:M66" si="0">IF(C3=D3,"igual")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>22</v>
       </c>
@@ -41098,12 +40803,16 @@
       <c r="E4" s="26">
         <v>-1000000</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="26">
         <v>-972437</v>
       </c>
       <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>22</v>
       </c>
@@ -41117,14 +40826,18 @@
         <v>85298504</v>
       </c>
       <c r="E5" s="26">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
       <c r="F5" s="26">
         <v>30000000</v>
       </c>
       <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>22</v>
       </c>
@@ -41138,14 +40851,18 @@
         <v>103262376</v>
       </c>
       <c r="E6" s="26">
-        <v>-20000000</v>
+        <v>-10000000</v>
       </c>
       <c r="F6" s="26">
         <v>-20000000</v>
       </c>
       <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>22</v>
       </c>
@@ -41153,7 +40870,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="20">
-        <v>118727938.66666667</v>
+        <v>93797328</v>
       </c>
       <c r="D7" s="20">
         <v>118727938.66666667</v>
@@ -41161,8 +40878,12 @@
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
@@ -41178,8 +40899,12 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>22</v>
       </c>
@@ -41195,8 +40920,12 @@
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>22</v>
       </c>
@@ -41212,8 +40941,12 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
@@ -41228,18 +40961,22 @@
       </c>
       <c r="E11" s="26">
         <f>E4/3*$G$2^3+E5/2*$G$2^2+E6*$G$2</f>
-        <v>3383333333.333334</v>
+        <v>-10575000000</v>
       </c>
       <c r="F11" s="26">
         <f>F4/3*$G$2^3+F5/2*$G$2^2+F6*$G$2</f>
-        <v>3777254541.666666</v>
-      </c>
-      <c r="G11" s="26">
+        <v>-62773875</v>
+      </c>
+      <c r="G11" s="22">
         <f>(F11-E11)/E11</f>
-        <v>0.11642991379310305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+        <v>-0.99406393617021271</v>
+      </c>
+      <c r="M11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -41253,13 +40990,21 @@
         <v>9962042</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="G12" s="29">
+        <f>1/G11</f>
+        <v>-1.0059715111008423</v>
+      </c>
+      <c r="M12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
@@ -41272,14 +41017,18 @@
       <c r="D13" s="20">
         <v>38027432</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>46</v>
+      <c r="E13" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>23</v>
       </c>
@@ -41292,14 +41041,18 @@
       <c r="D14" s="20">
         <v>64436072</v>
       </c>
-      <c r="E14" s="27">
-        <v>-1000000</v>
+      <c r="E14">
+        <v>-971972</v>
       </c>
       <c r="F14">
         <v>-807723</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>23</v>
       </c>
@@ -41312,14 +41065,18 @@
       <c r="D15" s="20">
         <v>84359701.333333328</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15">
+        <v>20000000</v>
+      </c>
+      <c r="F15">
         <v>30000000</v>
       </c>
-      <c r="F15" s="27">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
@@ -41332,14 +41089,18 @@
       <c r="D16" s="20">
         <v>101249298.66666667</v>
       </c>
-      <c r="E16" s="27">
-        <v>-20000000</v>
-      </c>
-      <c r="F16" s="27">
+      <c r="E16">
         <v>-10000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>-10000000</v>
+      </c>
+      <c r="M16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>23</v>
       </c>
@@ -41347,13 +41108,17 @@
         <v>25</v>
       </c>
       <c r="C17" s="20">
-        <v>116329162.66666667</v>
+        <v>90806050.666666672</v>
       </c>
       <c r="D17" s="20">
         <v>116329162.66666667</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>23</v>
       </c>
@@ -41366,8 +41131,12 @@
       <c r="D18" s="20">
         <v>131029797.33333333</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>23</v>
       </c>
@@ -41380,8 +41149,12 @@
       <c r="D19" s="20">
         <v>146292986.66666666</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>23</v>
       </c>
@@ -41394,8 +41167,12 @@
       <c r="D20" s="20">
         <v>160722661.33333334</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>23</v>
       </c>
@@ -41408,8 +41185,24 @@
       <c r="D21" s="20">
         <v>176116661.33333334</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f>E14/3*$G$2^3+E15/2*$G$2^2+E16*$G$2</f>
+        <v>-9723649500</v>
+      </c>
+      <c r="F21">
+        <f>F14/3*$G$2^3+F15/2*$G$2^2+F16*$G$2</f>
+        <v>5390413875</v>
+      </c>
+      <c r="G21">
+        <f>(F21-E21)/E21</f>
+        <v>-1.5543611866100275</v>
+      </c>
+      <c r="M21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>24</v>
       </c>
@@ -41423,13 +41216,17 @@
         <v>20023982.666666668</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="M22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>24</v>
       </c>
@@ -41443,13 +41240,17 @@
         <v>69918794.666666672</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="M23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>24</v>
       </c>
@@ -41468,8 +41269,12 @@
       <c r="F24" s="27">
         <v>-1000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
@@ -41483,13 +41288,17 @@
         <v>123390906.66666667</v>
       </c>
       <c r="E25" s="27">
-        <v>40000000</v>
+        <v>30000000</v>
       </c>
       <c r="F25" s="27">
         <v>30000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>24</v>
       </c>
@@ -41503,13 +41312,17 @@
         <v>141540954.66666666</v>
       </c>
       <c r="E26" s="27">
-        <v>-9000000</v>
+        <v>-1000000</v>
       </c>
       <c r="F26" s="27">
         <v>-2000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>24</v>
       </c>
@@ -41517,13 +41330,17 @@
         <v>25</v>
       </c>
       <c r="C27" s="8">
-        <v>158117072</v>
+        <v>128628168</v>
       </c>
       <c r="D27" s="20">
         <v>158117072</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>24</v>
       </c>
@@ -41536,8 +41353,12 @@
       <c r="D28" s="20">
         <v>175249221.33333334</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>24</v>
       </c>
@@ -41550,8 +41371,12 @@
       <c r="D29" s="20">
         <v>192739973.33333334</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>24</v>
       </c>
@@ -41564,8 +41389,12 @@
       <c r="D30" s="20">
         <v>211413568</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>24</v>
       </c>
@@ -41578,8 +41407,24 @@
       <c r="D31" s="20">
         <v>230135973.33333334</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <f>E24/3*$G$2^3+E25/2*$G$2^2+E26*$G$2</f>
+        <v>-30420000000</v>
+      </c>
+      <c r="F31">
+        <f>F24/3*$G$2^3+F25/2*$G$2^2+F26*$G$2</f>
+        <v>-90000000</v>
+      </c>
+      <c r="G31">
+        <f>(F31-E31)/E31</f>
+        <v>-0.99704142011834318</v>
+      </c>
+      <c r="M31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>25</v>
       </c>
@@ -41592,14 +41437,18 @@
       <c r="D32" s="20">
         <v>7290715.666666667</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F32" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>25</v>
       </c>
@@ -41612,14 +41461,18 @@
       <c r="D33" s="20">
         <v>23600519.333333332</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>25</v>
       </c>
@@ -41633,13 +41486,17 @@
         <v>45460644</v>
       </c>
       <c r="E34" s="27">
-        <v>-1000000</v>
+        <v>-700684</v>
       </c>
       <c r="F34">
         <v>-444247</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>25</v>
       </c>
@@ -41658,8 +41515,12 @@
       <c r="F35" s="27">
         <v>20000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>25</v>
       </c>
@@ -41673,13 +41534,17 @@
         <v>85502805.333333328</v>
       </c>
       <c r="E36" s="27">
-        <v>-20000000</v>
+        <v>-10000000</v>
       </c>
       <c r="F36" s="27">
         <v>-20000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>25</v>
       </c>
@@ -41692,8 +41557,12 @@
       <c r="D37" s="20">
         <v>102497936</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>25</v>
       </c>
@@ -41706,8 +41575,12 @@
       <c r="D38" s="20">
         <v>119563709.33333333</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>25</v>
       </c>
@@ -41720,8 +41593,12 @@
       <c r="D39" s="20">
         <v>134666976</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>25</v>
       </c>
@@ -41734,8 +41611,12 @@
       <c r="D40" s="20">
         <v>149427792</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>25</v>
       </c>
@@ -41748,8 +41629,24 @@
       <c r="D41" s="20">
         <v>163948832</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E41" s="27">
+        <f>E34/3*$G$2^3+E35/2*$G$2^2+E36*$G$2</f>
+        <v>-1483276500</v>
+      </c>
+      <c r="F41">
+        <f>F34/3*$G$2^3+F35/2*$G$2^2+F36*$G$2</f>
+        <v>5855997375</v>
+      </c>
+      <c r="G41">
+        <f>(F41-E41)/E41</f>
+        <v>-4.9480146655057231</v>
+      </c>
+      <c r="M41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>26</v>
       </c>
@@ -41762,14 +41659,18 @@
       <c r="D42" s="20">
         <v>13509312</v>
       </c>
-      <c r="E42" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E42" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>26</v>
       </c>
@@ -41782,14 +41683,18 @@
       <c r="D43" s="20">
         <v>59264866.666666664</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F43" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
         <v>26</v>
       </c>
@@ -41808,8 +41713,12 @@
       <c r="F44" s="27">
         <v>-1000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>26</v>
       </c>
@@ -41828,8 +41737,12 @@
       <c r="F45" s="27">
         <v>30000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
         <v>26</v>
       </c>
@@ -41848,8 +41761,12 @@
       <c r="F46" s="27">
         <v>-7000000</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
         <v>26</v>
       </c>
@@ -41857,13 +41774,17 @@
         <v>25</v>
       </c>
       <c r="C47" s="20">
-        <v>137380368</v>
+        <v>139943829.33333334</v>
       </c>
       <c r="D47" s="20">
         <v>137380368</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
         <v>26</v>
       </c>
@@ -41876,8 +41797,12 @@
       <c r="D48" s="20">
         <v>151524234.66666666</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>26</v>
       </c>
@@ -41890,8 +41815,12 @@
       <c r="D49" s="20">
         <v>165625685.33333334</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
         <v>26</v>
       </c>
@@ -41904,8 +41833,12 @@
       <c r="D50" s="20">
         <v>179719466.66666666</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
         <v>26</v>
       </c>
@@ -41918,8 +41851,24 @@
       <c r="D51" s="20">
         <v>193778549.33333334</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E51" s="27">
+        <f>E44/3*$G$2^3+E45/2*$G$2^2+E46*$G$2</f>
+        <v>-20655000000</v>
+      </c>
+      <c r="F51">
+        <f>F44/3*$G$2^3+F45/2*$G$2^2+F46*$G$2</f>
+        <v>-315000000</v>
+      </c>
+      <c r="G51">
+        <f>(F51-E51)/E51</f>
+        <v>-0.98474945533769065</v>
+      </c>
+      <c r="M51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
         <v>27</v>
       </c>
@@ -41932,14 +41881,12 @@
       <c r="D52" s="20">
         <v>13495538.666666666</v>
       </c>
-      <c r="E52" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
         <v>27</v>
       </c>
@@ -41952,14 +41899,14 @@
       <c r="D53" s="20">
         <v>43040772.666666664</v>
       </c>
-      <c r="E53" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="M53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
         <v>27</v>
       </c>
@@ -41972,14 +41919,13 @@
       <c r="D54" s="20">
         <v>68546801.333333328</v>
       </c>
-      <c r="E54" s="27">
-        <v>-2000000</v>
-      </c>
-      <c r="F54">
-        <v>-836107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E54" s="27"/>
+      <c r="M54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
         <v>27</v>
       </c>
@@ -41992,14 +41938,14 @@
       <c r="D55" s="20">
         <v>89735528</v>
       </c>
-      <c r="E55" s="27">
-        <v>30000000</v>
-      </c>
-      <c r="F55" s="27">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="M55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
         <v>27</v>
       </c>
@@ -42012,14 +41958,14 @@
       <c r="D56" s="20">
         <v>107951994.66666667</v>
       </c>
-      <c r="E56" s="27">
-        <v>-20000000</v>
-      </c>
-      <c r="F56" s="27">
-        <v>-10000000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="M56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
         <v>27</v>
       </c>
@@ -42027,13 +41973,17 @@
         <v>25</v>
       </c>
       <c r="C57" s="20">
-        <v>124519360</v>
+        <v>90253381.333333328</v>
       </c>
       <c r="D57" s="20">
         <v>124519360</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>27</v>
       </c>
@@ -42046,8 +41996,12 @@
       <c r="D58" s="20">
         <v>140469709.33333334</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>27</v>
       </c>
@@ -42060,8 +42014,12 @@
       <c r="D59" s="20">
         <v>155814069.33333334</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
         <v>27</v>
       </c>
@@ -42074,8 +42032,12 @@
       <c r="D60" s="20">
         <v>171053269.33333334</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
         <v>27</v>
       </c>
@@ -42088,8 +42050,12 @@
       <c r="D61" s="20">
         <v>185828074.66666666</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="M61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
         <v>28</v>
       </c>
@@ -42102,14 +42068,12 @@
       <c r="D62" s="20">
         <v>13242137.666666666</v>
       </c>
-      <c r="E62" t="s">
-        <v>64</v>
-      </c>
-      <c r="F62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
         <v>28</v>
       </c>
@@ -42122,14 +42086,13 @@
       <c r="D63" s="20">
         <v>54453350.666666664</v>
       </c>
-      <c r="E63" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E63" s="25"/>
+      <c r="M63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
         <v>28</v>
       </c>
@@ -42142,14 +42105,14 @@
       <c r="D64" s="20">
         <v>83319600</v>
       </c>
-      <c r="E64" s="27">
-        <v>-2000000</v>
-      </c>
-      <c r="F64" s="27">
-        <v>-1000000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="M64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
         <v>28</v>
       </c>
@@ -42162,14 +42125,14 @@
       <c r="D65" s="20">
         <v>101628520</v>
       </c>
-      <c r="E65" s="27">
-        <v>30000000</v>
-      </c>
-      <c r="F65" s="27">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="M65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
         <v>28</v>
       </c>
@@ -42182,14 +42145,14 @@
       <c r="D66" s="20">
         <v>117678218.66666667</v>
       </c>
-      <c r="E66" s="27">
-        <v>-10000000</v>
-      </c>
-      <c r="F66" s="27">
-        <v>-8000000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="M66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
         <v>28</v>
       </c>
@@ -42197,13 +42160,17 @@
         <v>25</v>
       </c>
       <c r="C67" s="20">
-        <v>132643925.33333333</v>
+        <v>104052013.33333333</v>
       </c>
       <c r="D67" s="20">
         <v>132643925.33333333</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M67" t="b">
+        <f t="shared" ref="M67:M130" si="1">IF(C67=D67,"igual")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
         <v>28</v>
       </c>
@@ -42216,8 +42183,12 @@
       <c r="D68" s="20">
         <v>147704992</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M68" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
         <v>28</v>
       </c>
@@ -42230,8 +42201,12 @@
       <c r="D69" s="20">
         <v>162020976</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M69" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
         <v>28</v>
       </c>
@@ -42244,8 +42219,12 @@
       <c r="D70" s="20">
         <v>176429589.33333334</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M70" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
         <v>28</v>
       </c>
@@ -42258,8 +42237,12 @@
       <c r="D71" s="20">
         <v>190430192</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="M71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
         <v>29</v>
       </c>
@@ -42272,14 +42255,12 @@
       <c r="D72" s="20">
         <v>10229330</v>
       </c>
-      <c r="E72" t="s">
-        <v>60</v>
-      </c>
-      <c r="F72" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M72" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
         <v>29</v>
       </c>
@@ -42292,14 +42273,14 @@
       <c r="D73" s="20">
         <v>38742305.333333336</v>
       </c>
-      <c r="E73" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="M73" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
         <v>29</v>
       </c>
@@ -42312,14 +42293,13 @@
       <c r="D74" s="20">
         <v>67506906.666666672</v>
       </c>
-      <c r="E74" s="27">
-        <v>-2000000</v>
-      </c>
-      <c r="F74">
-        <v>-979724</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E74" s="27"/>
+      <c r="M74" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
         <v>29</v>
       </c>
@@ -42332,14 +42312,14 @@
       <c r="D75" s="20">
         <v>90346386.666666672</v>
       </c>
-      <c r="E75" s="27">
-        <v>30000000</v>
-      </c>
-      <c r="F75" s="27">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="M75" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
         <v>29</v>
       </c>
@@ -42352,14 +42332,14 @@
       <c r="D76" s="20">
         <v>108191776</v>
       </c>
-      <c r="E76" s="27">
-        <v>-20000000</v>
-      </c>
-      <c r="F76" s="27">
-        <v>-20000000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="M76" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
         <v>29</v>
       </c>
@@ -42367,13 +42347,17 @@
         <v>25</v>
       </c>
       <c r="C77" s="20">
-        <v>124294634.66666667</v>
+        <v>99562029.333333328</v>
       </c>
       <c r="D77" s="20">
         <v>124294634.66666667</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M77" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
         <v>29</v>
       </c>
@@ -42386,8 +42370,12 @@
       <c r="D78" s="20">
         <v>139666954.66666666</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M78" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
         <v>29</v>
       </c>
@@ -42400,8 +42388,12 @@
       <c r="D79" s="20">
         <v>154914288</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M79" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
         <v>29</v>
       </c>
@@ -42414,8 +42406,12 @@
       <c r="D80" s="20">
         <v>169778394.66666666</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M80" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
         <v>29</v>
       </c>
@@ -42428,8 +42424,12 @@
       <c r="D81" s="20">
         <v>184223717.33333334</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="M81" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
         <v>30</v>
       </c>
@@ -42442,14 +42442,12 @@
       <c r="D82" s="20">
         <v>6713207.666666667</v>
       </c>
-      <c r="E82" t="s">
-        <v>71</v>
-      </c>
-      <c r="F82" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M82" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
         <v>30</v>
       </c>
@@ -42462,14 +42460,14 @@
       <c r="D83" s="20">
         <v>26176011.333333332</v>
       </c>
-      <c r="E83" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="M83" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
         <v>30</v>
       </c>
@@ -42482,14 +42480,12 @@
       <c r="D84" s="20">
         <v>48498204</v>
       </c>
-      <c r="E84">
-        <v>-948241</v>
-      </c>
-      <c r="F84">
-        <v>-428074</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M84" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
         <v>30</v>
       </c>
@@ -42502,14 +42498,14 @@
       <c r="D85" s="20">
         <v>68797344</v>
       </c>
-      <c r="E85" s="27">
-        <v>30000000</v>
-      </c>
-      <c r="F85" s="27">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="M85" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
         <v>30</v>
       </c>
@@ -42522,14 +42518,14 @@
       <c r="D86" s="20">
         <v>88148970.666666672</v>
       </c>
-      <c r="E86" s="27">
-        <v>-20000000</v>
-      </c>
-      <c r="F86" s="27">
-        <v>-20000000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="M86" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
         <v>30</v>
       </c>
@@ -42537,13 +42533,17 @@
         <v>25</v>
       </c>
       <c r="C87" s="20">
-        <v>105321026.66666667</v>
+        <v>98270952</v>
       </c>
       <c r="D87" s="20">
         <v>105321026.66666667</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M87" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
         <v>30</v>
       </c>
@@ -42556,8 +42556,12 @@
       <c r="D88" s="20">
         <v>122622973.33333333</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
         <v>30</v>
       </c>
@@ -42570,8 +42574,12 @@
       <c r="D89" s="20">
         <v>138648184</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M89" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
         <v>30</v>
       </c>
@@ -42584,8 +42592,12 @@
       <c r="D90" s="20">
         <v>154474488</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M90" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
         <v>30</v>
       </c>
@@ -42598,8 +42610,12 @@
       <c r="D91" s="20">
         <v>170115914.66666666</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="M91" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
         <v>31</v>
       </c>
@@ -42612,14 +42628,12 @@
       <c r="D92" s="20">
         <v>11099279.333333334</v>
       </c>
-      <c r="E92" t="s">
-        <v>75</v>
-      </c>
-      <c r="F92" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M92" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
         <v>31</v>
       </c>
@@ -42632,14 +42646,14 @@
       <c r="D93" s="20">
         <v>49580201.333333336</v>
       </c>
-      <c r="E93" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="M93" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
         <v>31</v>
       </c>
@@ -42652,14 +42666,14 @@
       <c r="D94" s="20">
         <v>82170426.666666672</v>
       </c>
-      <c r="E94" s="27">
-        <v>-2000000</v>
-      </c>
-      <c r="F94" s="27">
-        <v>-1000000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="M94" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
         <v>31</v>
       </c>
@@ -42672,14 +42686,14 @@
       <c r="D95" s="20">
         <v>104843181.33333333</v>
       </c>
-      <c r="E95" s="27">
-        <v>40000000</v>
-      </c>
-      <c r="F95" s="27">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="M95" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
         <v>31</v>
       </c>
@@ -42692,14 +42706,14 @@
       <c r="D96" s="20">
         <v>122523629.33333333</v>
       </c>
-      <c r="E96" s="27">
-        <v>-20000000</v>
-      </c>
-      <c r="F96" s="27">
-        <v>-10000000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="M96" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
         <v>31</v>
       </c>
@@ -42707,13 +42721,17 @@
         <v>25</v>
       </c>
       <c r="C97" s="20">
-        <v>138481877.33333334</v>
+        <v>114427186.66666667</v>
       </c>
       <c r="D97" s="20">
         <v>138481877.33333334</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M97" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
         <v>31</v>
       </c>
@@ -42726,8 +42744,12 @@
       <c r="D98" s="20">
         <v>154400880</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M98" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
         <v>31</v>
       </c>
@@ -42740,8 +42762,12 @@
       <c r="D99" s="20">
         <v>170293818.66666666</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M99" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
         <v>31</v>
       </c>
@@ -42754,8 +42780,12 @@
       <c r="D100" s="20">
         <v>187087584</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M100" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
         <v>31</v>
       </c>
@@ -42768,8 +42798,12 @@
       <c r="D101" s="20">
         <v>204512064</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="M101" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
         <v>32</v>
       </c>
@@ -42782,14 +42816,12 @@
       <c r="D102" s="20">
         <v>9743146.666666666</v>
       </c>
-      <c r="E102" t="s">
-        <v>42</v>
-      </c>
-      <c r="F102" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M102" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
         <v>32</v>
       </c>
@@ -42802,14 +42834,14 @@
       <c r="D103" s="20">
         <v>39923216</v>
       </c>
-      <c r="E103" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F103" s="25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="M103" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
         <v>32</v>
       </c>
@@ -42822,14 +42854,13 @@
       <c r="D104" s="20">
         <v>68670088</v>
       </c>
-      <c r="E104" s="27">
-        <v>-1000000</v>
-      </c>
-      <c r="F104">
-        <v>-939908</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E104" s="27"/>
+      <c r="M104" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="s">
         <v>32</v>
       </c>
@@ -42842,14 +42873,14 @@
       <c r="D105" s="20">
         <v>90714680</v>
       </c>
-      <c r="E105" s="27">
-        <v>30000000</v>
-      </c>
-      <c r="F105" s="27">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="M105" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
         <v>32</v>
       </c>
@@ -42862,14 +42893,14 @@
       <c r="D106" s="20">
         <v>109522248</v>
       </c>
-      <c r="E106" s="27">
-        <v>-20000000</v>
-      </c>
-      <c r="F106" s="27">
-        <v>-20000000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="M106" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
         <v>32</v>
       </c>
@@ -42877,13 +42908,17 @@
         <v>25</v>
       </c>
       <c r="C107" s="20">
-        <v>127010714.66666667</v>
+        <v>99471197.333333328</v>
       </c>
       <c r="D107" s="20">
         <v>127010714.66666667</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M107" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
         <v>32</v>
       </c>
@@ -42896,8 +42931,12 @@
       <c r="D108" s="20">
         <v>143143333.33333334</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M108" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
         <v>32</v>
       </c>
@@ -42910,8 +42949,12 @@
       <c r="D109" s="20">
         <v>159785781.33333334</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M109" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
         <v>32</v>
       </c>
@@ -42924,8 +42967,12 @@
       <c r="D110" s="20">
         <v>175213082.66666666</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M110" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
         <v>32</v>
       </c>
@@ -42938,8 +42985,12 @@
       <c r="D111" s="20">
         <v>189882426.66666666</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="M111" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="s">
         <v>33</v>
       </c>
@@ -42952,14 +43003,12 @@
       <c r="D112" s="20">
         <v>12185508.666666666</v>
       </c>
-      <c r="E112" t="s">
-        <v>75</v>
-      </c>
-      <c r="F112" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M112" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="s">
         <v>33</v>
       </c>
@@ -42972,14 +43021,13 @@
       <c r="D113" s="20">
         <v>52061358.666666664</v>
       </c>
-      <c r="E113" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F113" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E113" s="25"/>
+      <c r="M113" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="23" t="s">
         <v>33</v>
       </c>
@@ -42992,14 +43040,13 @@
       <c r="D114" s="20">
         <v>85882189.333333328</v>
       </c>
-      <c r="E114" s="27">
-        <v>-2000000</v>
-      </c>
-      <c r="F114">
-        <v>-967435</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E114" s="27"/>
+      <c r="M114" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="s">
         <v>33</v>
       </c>
@@ -43012,14 +43059,14 @@
       <c r="D115" s="20">
         <v>110943453.33333333</v>
       </c>
-      <c r="E115" s="27">
-        <v>40000000</v>
-      </c>
-      <c r="F115" s="27">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="M115" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="s">
         <v>33</v>
       </c>
@@ -43032,14 +43079,14 @@
       <c r="D116" s="20">
         <v>132074026.66666667</v>
       </c>
-      <c r="E116" s="27">
-        <v>-20000000</v>
-      </c>
-      <c r="F116" s="27">
-        <v>-10000000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="M116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="s">
         <v>33</v>
       </c>
@@ -43047,13 +43094,17 @@
         <v>25</v>
       </c>
       <c r="C117" s="20">
-        <v>151755248</v>
+        <v>131913200</v>
       </c>
       <c r="D117" s="20">
         <v>151755248</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M117" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="s">
         <v>33</v>
       </c>
@@ -43066,8 +43117,12 @@
       <c r="D118" s="20">
         <v>171001402.66666666</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M118" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="s">
         <v>33</v>
       </c>
@@ -43080,8 +43135,12 @@
       <c r="D119" s="20">
         <v>190653792</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="s">
         <v>33</v>
       </c>
@@ -43094,8 +43153,12 @@
       <c r="D120" s="20">
         <v>212081621.33333334</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M120" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="s">
         <v>33</v>
       </c>
@@ -43108,8 +43171,12 @@
       <c r="D121" s="20">
         <v>233480954.66666666</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="M121" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="23" t="s">
         <v>34</v>
       </c>
@@ -43122,14 +43189,12 @@
       <c r="D122" s="20">
         <v>7866467.333333333</v>
       </c>
-      <c r="E122" t="s">
-        <v>42</v>
-      </c>
-      <c r="F122" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M122" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="s">
         <v>34</v>
       </c>
@@ -43142,14 +43207,14 @@
       <c r="D123" s="20">
         <v>28598150.666666668</v>
       </c>
-      <c r="E123" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F123" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="M123" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="s">
         <v>34</v>
       </c>
@@ -43162,14 +43227,13 @@
       <c r="D124" s="20">
         <v>51911365.333333336</v>
       </c>
-      <c r="E124" s="27">
-        <v>-1000000</v>
-      </c>
-      <c r="F124">
-        <v>-427586</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E124" s="27"/>
+      <c r="M124" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="s">
         <v>34</v>
       </c>
@@ -43182,14 +43246,14 @@
       <c r="D125" s="20">
         <v>72927738.666666672</v>
       </c>
-      <c r="E125" s="27">
-        <v>30000000</v>
-      </c>
-      <c r="F125" s="27">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="M125" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="s">
         <v>34</v>
       </c>
@@ -43202,14 +43266,14 @@
       <c r="D126" s="20">
         <v>91642576</v>
       </c>
-      <c r="E126" s="27">
-        <v>-20000000</v>
-      </c>
-      <c r="F126" s="27">
-        <v>-10000000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="M126" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="s">
         <v>34</v>
       </c>
@@ -43217,13 +43281,17 @@
         <v>25</v>
       </c>
       <c r="C127" s="20">
-        <v>108963384</v>
+        <v>83750509.333333328</v>
       </c>
       <c r="D127" s="20">
         <v>108963384</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M127" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="s">
         <v>34</v>
       </c>
@@ -43236,8 +43304,12 @@
       <c r="D128" s="20">
         <v>126564520</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M128" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="s">
         <v>34</v>
       </c>
@@ -43250,8 +43322,12 @@
       <c r="D129" s="20">
         <v>142636922.66666666</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M129" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="23" t="s">
         <v>34</v>
       </c>
@@ -43264,8 +43340,12 @@
       <c r="D130" s="20">
         <v>160399024</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M130" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="s">
         <v>34</v>
       </c>
@@ -43278,8 +43358,12 @@
       <c r="D131" s="20">
         <v>176228826.66666666</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="M131" t="b">
+        <f t="shared" ref="M131:M158" si="2">IF(C131=D131,"igual")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="s">
         <v>35</v>
       </c>
@@ -43292,14 +43376,12 @@
       <c r="D132" s="20">
         <v>10532296.333333334</v>
       </c>
-      <c r="E132" t="s">
-        <v>60</v>
-      </c>
-      <c r="F132" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M132" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="23" t="s">
         <v>35</v>
       </c>
@@ -43312,14 +43394,14 @@
       <c r="D133" s="20">
         <v>41996216</v>
       </c>
-      <c r="E133" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F133" s="25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="M133" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="23" t="s">
         <v>35</v>
       </c>
@@ -43332,14 +43414,13 @@
       <c r="D134" s="20">
         <v>71516428</v>
       </c>
-      <c r="E134" s="27">
-        <v>-2000000</v>
-      </c>
-      <c r="F134">
-        <v>-811883</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E134" s="27"/>
+      <c r="M134" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="23" t="s">
         <v>35</v>
       </c>
@@ -43352,14 +43433,14 @@
       <c r="D135" s="20">
         <v>96038792</v>
       </c>
-      <c r="E135" s="27">
-        <v>30000000</v>
-      </c>
-      <c r="F135" s="27">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="M135" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="23" t="s">
         <v>35</v>
       </c>
@@ -43372,14 +43453,14 @@
       <c r="D136" s="20">
         <v>117503653.33333333</v>
       </c>
-      <c r="E136" s="27">
-        <v>-20000000</v>
-      </c>
-      <c r="F136" s="27">
-        <v>-20000000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="M136" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="23" t="s">
         <v>35</v>
       </c>
@@ -43387,13 +43468,17 @@
         <v>25</v>
       </c>
       <c r="C137" s="20">
-        <v>136992088</v>
+        <v>124768586.66666667</v>
       </c>
       <c r="D137" s="20">
         <v>136992088</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M137" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="23" t="s">
         <v>35</v>
       </c>
@@ -43406,8 +43491,12 @@
       <c r="D138" s="20">
         <v>155561248</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M138" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="s">
         <v>35</v>
       </c>
@@ -43420,8 +43509,12 @@
       <c r="D139" s="20">
         <v>174095162.66666666</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M139" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="23" t="s">
         <v>35</v>
       </c>
@@ -43434,8 +43527,12 @@
       <c r="D140" s="20">
         <v>193715749.33333334</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M140" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="s">
         <v>35</v>
       </c>
@@ -43448,8 +43545,12 @@
       <c r="D141" s="20">
         <v>211573312</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="M141" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="s">
         <v>36</v>
       </c>
@@ -43462,14 +43563,12 @@
       <c r="D142" s="20">
         <v>11703656.666666666</v>
       </c>
-      <c r="E142" t="s">
-        <v>91</v>
-      </c>
-      <c r="F142" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M142" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="23" t="s">
         <v>36</v>
       </c>
@@ -43482,14 +43581,14 @@
       <c r="D143" s="20">
         <v>46628592</v>
       </c>
-      <c r="E143" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F143" s="25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
+      <c r="M143" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="23" t="s">
         <v>36</v>
       </c>
@@ -43502,14 +43601,13 @@
       <c r="D144" s="20">
         <v>74883325.333333328</v>
       </c>
-      <c r="E144" s="27">
-        <v>-2000000</v>
-      </c>
-      <c r="F144">
-        <v>-805942</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E144" s="27"/>
+      <c r="M144" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="s">
         <v>36</v>
       </c>
@@ -43522,14 +43620,14 @@
       <c r="D145" s="20">
         <v>96577858.666666672</v>
       </c>
-      <c r="E145" s="27">
-        <v>30000000</v>
-      </c>
-      <c r="F145" s="27">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="M145" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="s">
         <v>36</v>
       </c>
@@ -43542,14 +43640,14 @@
       <c r="D146" s="20">
         <v>115449752</v>
       </c>
-      <c r="E146" s="27">
-        <v>-9000000</v>
-      </c>
-      <c r="F146" s="27">
-        <v>-10000000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="M146" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="s">
         <v>36</v>
       </c>
@@ -43557,13 +43655,17 @@
         <v>25</v>
       </c>
       <c r="C147" s="20">
-        <v>132994093.33333333</v>
+        <v>110132013.33333333</v>
       </c>
       <c r="D147" s="20">
         <v>132994093.33333333</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M147" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="23" t="s">
         <v>36</v>
       </c>
@@ -43576,8 +43678,12 @@
       <c r="D148" s="20">
         <v>150571136</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M148" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="23" t="s">
         <v>36</v>
       </c>
@@ -43590,8 +43696,12 @@
       <c r="D149" s="20">
         <v>167898874.66666666</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M149" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="s">
         <v>36</v>
       </c>
@@ -43604,8 +43714,12 @@
       <c r="D150" s="20">
         <v>185715877.33333334</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M150" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="s">
         <v>36</v>
       </c>
@@ -43618,56 +43732,60 @@
       <c r="D151" s="20">
         <v>205054170.66666666</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M151" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="24"/>
       <c r="B152" s="24"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
     </row>
-    <row r="153" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="24"/>
       <c r="B153" s="24"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
     </row>
-    <row r="154" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="24"/>
       <c r="B154" s="24"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
     </row>
-    <row r="155" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="24"/>
       <c r="B155" s="24"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
     </row>
-    <row r="156" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="24"/>
       <c r="B156" s="24"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
     </row>
-    <row r="157" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="24"/>
       <c r="B157" s="24"/>
       <c r="C157" s="20"/>
       <c r="D157" s="20"/>
     </row>
-    <row r="158" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="24"/>
       <c r="B158" s="24"/>
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
     </row>
-    <row r="159" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="24"/>
       <c r="B159" s="24"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
     </row>
-    <row r="160" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="24"/>
       <c r="B160" s="24"/>
       <c r="C160" s="20"/>
@@ -48715,405 +48833,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
-        <v>5959400</v>
-      </c>
-      <c r="G1">
-        <v>5959400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>5875048</v>
-      </c>
-      <c r="G2">
-        <v>5875048</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>8697776</v>
-      </c>
-      <c r="G3">
-        <v>8697776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>99446616</v>
-      </c>
-      <c r="G4">
-        <v>99446616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>98084512</v>
-      </c>
-      <c r="G5">
-        <v>98084512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>83860856</v>
-      </c>
-      <c r="G6">
-        <v>83860856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>89821200</v>
-      </c>
-      <c r="G7">
-        <v>89821200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>87432152</v>
-      </c>
-      <c r="G8">
-        <v>87432152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>95164800</v>
-      </c>
-      <c r="G9">
-        <v>95164800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>136834416</v>
-      </c>
-      <c r="G10">
-        <v>136834416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>124065584</v>
-      </c>
-      <c r="G11">
-        <v>124065584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>124984504</v>
-      </c>
-      <c r="G12">
-        <v>124984504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>76798096</v>
-      </c>
-      <c r="G13">
-        <v>76798096</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>68741232</v>
-      </c>
-      <c r="G14">
-        <v>68741232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>74722472</v>
-      </c>
-      <c r="G15">
-        <v>74722472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>137149408</v>
-      </c>
-      <c r="G16">
-        <v>137149408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>141255824</v>
-      </c>
-      <c r="G17">
-        <v>141255824</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>141426256</v>
-      </c>
-      <c r="G18">
-        <v>141426256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>82727688</v>
-      </c>
-      <c r="G19">
-        <v>82727688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>99824904</v>
-      </c>
-      <c r="G20">
-        <v>99824904</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>88207552</v>
-      </c>
-      <c r="G21">
-        <v>88207552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>103155632</v>
-      </c>
-      <c r="G22">
-        <v>103155632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>102125712</v>
-      </c>
-      <c r="G23">
-        <v>102125712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>106874696</v>
-      </c>
-      <c r="G24">
-        <v>106874696</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>99703448</v>
-      </c>
-      <c r="G25">
-        <v>99703448</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>101253040</v>
-      </c>
-      <c r="G26">
-        <v>101253040</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>97729600</v>
-      </c>
-      <c r="G27">
-        <v>97729600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>93907376</v>
-      </c>
-      <c r="G28">
-        <v>93907376</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>105371088</v>
-      </c>
-      <c r="G29">
-        <v>105371088</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>95534392</v>
-      </c>
-      <c r="G30">
-        <v>95534392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>115353648</v>
-      </c>
-      <c r="G31">
-        <v>115353648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>118239992</v>
-      </c>
-      <c r="G32">
-        <v>118239992</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>109687920</v>
-      </c>
-      <c r="G33">
-        <v>109687920</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>93577832</v>
-      </c>
-      <c r="G34">
-        <v>93577832</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>102736640</v>
-      </c>
-      <c r="G35">
-        <v>102736640</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>102099120</v>
-      </c>
-      <c r="G36">
-        <v>102099120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>134451664</v>
-      </c>
-      <c r="G37">
-        <v>134451664</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>123849376</v>
-      </c>
-      <c r="G38">
-        <v>123849376</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>137438560</v>
-      </c>
-      <c r="G39">
-        <v>137438560</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>73244056</v>
-      </c>
-      <c r="G40">
-        <v>73244056</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <v>95059832</v>
-      </c>
-      <c r="G41">
-        <v>95059832</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>82947640</v>
-      </c>
-      <c r="G42">
-        <v>82947640</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <v>125056176</v>
-      </c>
-      <c r="G43">
-        <v>125056176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>125486224</v>
-      </c>
-      <c r="G44">
-        <v>125486224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <v>123763360</v>
-      </c>
-      <c r="G45">
-        <v>123763360</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
-        <v>102079256</v>
-      </c>
-      <c r="G46">
-        <v>102079256</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
-        <v>113699248</v>
-      </c>
-      <c r="G47">
-        <v>113699248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>114617536</v>
-      </c>
-      <c r="G48">
-        <v>114617536</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/doc/ACAP DG PH 7.6 31-03-21.xlsx
+++ b/doc/ACAP DG PH 7.6 31-03-21.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Dados planilhados" sheetId="3" r:id="rId3"/>
     <sheet name="Feito com formula" sheetId="5" r:id="rId4"/>
     <sheet name="Dados sem e com ABAP" sheetId="4" r:id="rId5"/>
-    <sheet name="Plan1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dados planilhados'!$A$1:$H$1249</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="75">
   <si>
     <t>##BLOCKS= 1</t>
   </si>
@@ -218,6 +217,42 @@
   <si>
     <t xml:space="preserve"> 14144296.099 + (6109156.455 * 45) - (46988.421 * 45^2) </t>
   </si>
+  <si>
+    <t xml:space="preserve"> 10101261.300 + (4447317.269 * 45) - (41941.289 * 45^2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8688002.790 + (5573157.040 * 45) - (38037.042 * 45^2) </t>
+  </si>
+  <si>
+    <t>16348103.223 + (6212393.675 * 45) - (67690.648 * 45^2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16631358.078 + (6278005.618 * 45) - (37379.839 * 45^2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2771017.964 + (4001238.845 * 45) - (35774.104 * 45^2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3764594.424 + (4494724.389 * 45) - (17544.174 * 45^2) </t>
+  </si>
+  <si>
+    <t>0.36 para 0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12013613.031 + (5702324.504 * 45) - (52914.994 * 45^2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6946080.229 + (5907759.378 * 45) - (33820.428 * 45^2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18759245.822 + (4766241.431 * 45) - (48286.252 * 45^2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6946080.229 + (5907759.378 * 45) - (33820.428 * 45^2) </t>
+  </si>
+  <si>
+    <t>0.25 PARA 0.23</t>
+  </si>
 </sst>
 </file>
 
@@ -225,7 +260,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\.m"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -428,7 +463,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -652,11 +687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94178304"/>
-        <c:axId val="94188288"/>
+        <c:axId val="100211712"/>
+        <c:axId val="100225792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94178304"/>
+        <c:axId val="100211712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,7 +700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94188288"/>
+        <c:crossAx val="100225792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -673,7 +708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94188288"/>
+        <c:axId val="100225792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94178304"/>
+        <c:crossAx val="100211712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -897,11 +932,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103168256"/>
-        <c:axId val="103178240"/>
+        <c:axId val="102844672"/>
+        <c:axId val="102854656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103168256"/>
+        <c:axId val="102844672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103178240"/>
+        <c:crossAx val="102854656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -918,7 +953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103178240"/>
+        <c:axId val="102854656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103168256"/>
+        <c:crossAx val="102844672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1142,11 +1177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103209600"/>
-        <c:axId val="103092608"/>
+        <c:axId val="102877824"/>
+        <c:axId val="103416192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103209600"/>
+        <c:axId val="102877824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103092608"/>
+        <c:crossAx val="103416192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1163,7 +1198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103092608"/>
+        <c:axId val="103416192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,7 +1209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103209600"/>
+        <c:crossAx val="102877824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1387,11 +1422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103107584"/>
-        <c:axId val="103113472"/>
+        <c:axId val="103431168"/>
+        <c:axId val="103441152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103107584"/>
+        <c:axId val="103431168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103113472"/>
+        <c:crossAx val="103441152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1408,7 +1443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103113472"/>
+        <c:axId val="103441152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,7 +1454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103107584"/>
+        <c:crossAx val="103431168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1632,11 +1667,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103144832"/>
-        <c:axId val="104465536"/>
+        <c:axId val="103488896"/>
+        <c:axId val="103494784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103144832"/>
+        <c:axId val="103488896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,7 +1680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104465536"/>
+        <c:crossAx val="103494784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1653,7 +1688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104465536"/>
+        <c:axId val="103494784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103144832"/>
+        <c:crossAx val="103488896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1877,11 +1912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104513536"/>
-        <c:axId val="104515072"/>
+        <c:axId val="103538688"/>
+        <c:axId val="103540224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104513536"/>
+        <c:axId val="103538688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +1925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104515072"/>
+        <c:crossAx val="103540224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1898,7 +1933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104515072"/>
+        <c:axId val="103540224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,7 +1944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104513536"/>
+        <c:crossAx val="103538688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2122,11 +2157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104558976"/>
-        <c:axId val="104560512"/>
+        <c:axId val="103584128"/>
+        <c:axId val="103585664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104558976"/>
+        <c:axId val="103584128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2135,7 +2170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104560512"/>
+        <c:crossAx val="103585664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2143,7 +2178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104560512"/>
+        <c:axId val="103585664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104558976"/>
+        <c:crossAx val="103584128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2367,11 +2402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94207360"/>
-        <c:axId val="94221440"/>
+        <c:axId val="100253056"/>
+        <c:axId val="100304000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94207360"/>
+        <c:axId val="100253056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,7 +2415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94221440"/>
+        <c:crossAx val="100304000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2388,7 +2423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94221440"/>
+        <c:axId val="100304000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94207360"/>
+        <c:crossAx val="100253056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2617,11 +2652,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96051200"/>
-        <c:axId val="96052736"/>
+        <c:axId val="101646336"/>
+        <c:axId val="101647872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96051200"/>
+        <c:axId val="101646336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,7 +2665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96052736"/>
+        <c:crossAx val="101647872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2638,7 +2673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96052736"/>
+        <c:axId val="101647872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2649,7 +2684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96051200"/>
+        <c:crossAx val="101646336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2862,11 +2897,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102066048"/>
-        <c:axId val="102067584"/>
+        <c:axId val="101687680"/>
+        <c:axId val="101689216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102066048"/>
+        <c:axId val="101687680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,7 +2910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102067584"/>
+        <c:crossAx val="101689216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2883,7 +2918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102067584"/>
+        <c:axId val="101689216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2894,7 +2929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102066048"/>
+        <c:crossAx val="101687680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3117,11 +3152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102582912"/>
-        <c:axId val="102584704"/>
+        <c:axId val="102381824"/>
+        <c:axId val="102387712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102582912"/>
+        <c:axId val="102381824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,7 +3165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102584704"/>
+        <c:crossAx val="102387712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3138,7 +3173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102584704"/>
+        <c:axId val="102387712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102582912"/>
+        <c:crossAx val="102381824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3362,11 +3397,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102624256"/>
-        <c:axId val="102961920"/>
+        <c:axId val="102419456"/>
+        <c:axId val="102429440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102624256"/>
+        <c:axId val="102419456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3375,7 +3410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102961920"/>
+        <c:crossAx val="102429440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3383,7 +3418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102961920"/>
+        <c:axId val="102429440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3394,7 +3429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102624256"/>
+        <c:crossAx val="102419456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3607,11 +3642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102988800"/>
-        <c:axId val="102998784"/>
+        <c:axId val="102464512"/>
+        <c:axId val="102486784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102988800"/>
+        <c:axId val="102464512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3620,7 +3655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102998784"/>
+        <c:crossAx val="102486784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3628,7 +3663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102998784"/>
+        <c:axId val="102486784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3639,7 +3674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102988800"/>
+        <c:crossAx val="102464512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3852,11 +3887,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103020032"/>
-        <c:axId val="103021568"/>
+        <c:axId val="103624064"/>
+        <c:axId val="103629952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103020032"/>
+        <c:axId val="103624064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3865,7 +3900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103021568"/>
+        <c:crossAx val="103629952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3873,7 +3908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103021568"/>
+        <c:axId val="103629952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,7 +3919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103020032"/>
+        <c:crossAx val="103624064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4097,11 +4132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103061376"/>
-        <c:axId val="103062912"/>
+        <c:axId val="103669760"/>
+        <c:axId val="103671296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103061376"/>
+        <c:axId val="103669760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4110,7 +4145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103062912"/>
+        <c:crossAx val="103671296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4118,7 +4153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103062912"/>
+        <c:axId val="103671296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,7 +4164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103061376"/>
+        <c:crossAx val="103669760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -46463,8 +46498,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="D133" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -48813,6 +48848,12 @@
       <c r="D102" s="23">
         <v>5562600</v>
       </c>
+      <c r="E102" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F102" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="M102" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -48849,6 +48890,12 @@
       <c r="D104" s="23">
         <v>64517574</v>
       </c>
+      <c r="E104" s="32">
+        <v>-41941289</v>
+      </c>
+      <c r="F104" s="32">
+        <v>-38037042</v>
+      </c>
       <c r="M104" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -48867,6 +48914,12 @@
       <c r="D105" s="23">
         <v>86523307.666666672</v>
       </c>
+      <c r="E105" s="32">
+        <v>4447317269</v>
+      </c>
+      <c r="F105" s="32">
+        <v>5573157040</v>
+      </c>
       <c r="M105" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -48885,6 +48938,12 @@
       <c r="D106" s="23">
         <v>105268716.33333333</v>
       </c>
+      <c r="E106" s="32">
+        <v>10101261300</v>
+      </c>
+      <c r="F106" s="32">
+        <v>8688002790</v>
+      </c>
       <c r="M106" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -48959,15 +49018,15 @@
       </c>
       <c r="E110" s="32">
         <f>E104/3*$G$2^3+E105/2*$G$2^2+E106*$G$2</f>
-        <v>0</v>
+        <v>3683498839987.5</v>
       </c>
       <c r="F110" s="32">
         <f>F104/3*$G$2^3+F105/2*$G$2^2+F106*$G$2</f>
-        <v>0</v>
-      </c>
-      <c r="G110" s="24" t="e">
+        <v>4878406477800</v>
+      </c>
+      <c r="G110" s="24">
         <f>(F110-E110)/E110</f>
-        <v>#DIV/0!</v>
+        <v>0.32439473710179179</v>
       </c>
       <c r="M110" s="23" t="b">
         <f t="shared" si="3"/>
@@ -48987,9 +49046,18 @@
       <c r="D111" s="23">
         <v>185045421.66666666</v>
       </c>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="31"/>
+      <c r="E111" s="33">
+        <f xml:space="preserve"> 10101261.3*45 + (4447317.269/2 * 45^2) - (41941.289/3 * 45^3)</f>
+        <v>3683498839.9875002</v>
+      </c>
+      <c r="F111" s="33">
+        <f>8688002.79*45 + (5573157.04/2 * 45^2) - (38037.042/3 * 45^3)</f>
+        <v>4878406477.8000002</v>
+      </c>
+      <c r="G111" s="35">
+        <f>(F111-E111)/E111</f>
+        <v>0.32439473710179173</v>
+      </c>
       <c r="M111" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -49008,6 +49076,12 @@
       <c r="D112" s="23">
         <v>8808033.833333334</v>
       </c>
+      <c r="E112" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F112" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="M112" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -49044,6 +49118,12 @@
       <c r="D114" s="23">
         <v>81729675.333333328</v>
       </c>
+      <c r="E114" s="32">
+        <v>-67690648</v>
+      </c>
+      <c r="F114" s="32">
+        <v>-37379839</v>
+      </c>
       <c r="M114" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -49062,6 +49142,12 @@
       <c r="D115" s="23">
         <v>106752081</v>
       </c>
+      <c r="E115" s="32">
+        <v>6212393675</v>
+      </c>
+      <c r="F115" s="32">
+        <v>6278005618</v>
+      </c>
       <c r="M115" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -49080,6 +49166,12 @@
       <c r="D116" s="23">
         <v>127820495</v>
       </c>
+      <c r="E116" s="32">
+        <v>16348103223</v>
+      </c>
+      <c r="F116" s="32">
+        <v>16631358078</v>
+      </c>
       <c r="M116" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -49154,15 +49246,15 @@
       </c>
       <c r="E120" s="32">
         <f>E114/3*$G$2^3+E115/2*$G$2^2+E116*$G$2</f>
-        <v>0</v>
+        <v>4969609807972.5</v>
       </c>
       <c r="F120" s="32">
         <f>F114/3*$G$2^3+F115/2*$G$2^2+F116*$G$2</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="24" t="e">
+        <v>5969479192110</v>
+      </c>
+      <c r="G120" s="24">
         <f>(F120-E120)/E120</f>
-        <v>#DIV/0!</v>
+        <v>0.20119675845243601</v>
       </c>
       <c r="M120" s="23" t="b">
         <f t="shared" si="3"/>
@@ -49182,9 +49274,18 @@
       <c r="D121" s="23">
         <v>228643949.66666666</v>
       </c>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="31"/>
+      <c r="E121" s="33">
+        <f>16348103.223*45 + (6212393.675/2 * 45^2) - (67690.648/3 * 45^3)</f>
+        <v>4969609807.9724998</v>
+      </c>
+      <c r="F121" s="33">
+        <f xml:space="preserve"> 16631358.078*45 + (6278005.618/2 * 45^2) - (37379.839/3 * 45^3)</f>
+        <v>5969479192.1099997</v>
+      </c>
+      <c r="G121" s="35">
+        <f>(F121-E121)/E121</f>
+        <v>0.20119675845243598</v>
+      </c>
       <c r="M121" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -49203,6 +49304,12 @@
       <c r="D122" s="23">
         <v>3685920.6666666665</v>
       </c>
+      <c r="E122" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F122" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="M122" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -49239,6 +49346,12 @@
       <c r="D124" s="23">
         <v>47758851.333333336</v>
       </c>
+      <c r="E124" s="32">
+        <v>-35774104</v>
+      </c>
+      <c r="F124" s="32">
+        <v>-17544174</v>
+      </c>
       <c r="M124" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -49257,6 +49370,12 @@
       <c r="D125" s="23">
         <v>68736366.333333343</v>
       </c>
+      <c r="E125" s="32">
+        <v>4001238845</v>
+      </c>
+      <c r="F125" s="32">
+        <v>4494724389</v>
+      </c>
       <c r="M125" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -49275,6 +49394,12 @@
       <c r="D126" s="23">
         <v>87389044.333333328</v>
       </c>
+      <c r="E126" s="32">
+        <v>2771017964</v>
+      </c>
+      <c r="F126" s="32">
+        <v>3764594424</v>
+      </c>
       <c r="M126" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -49329,6 +49454,9 @@
       <c r="D129" s="23">
         <v>138039827</v>
       </c>
+      <c r="G129" s="36" t="s">
+        <v>69</v>
+      </c>
       <c r="M129" s="23" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -49349,15 +49477,15 @@
       </c>
       <c r="E130" s="32">
         <f>E124/3*$G$2^3+E125/2*$G$2^2+E126*$G$2</f>
-        <v>0</v>
+        <v>3089311729942.5</v>
       </c>
       <c r="F130" s="32">
         <f>F124/3*$G$2^3+F125/2*$G$2^2+F126*$G$2</f>
-        <v>0</v>
-      </c>
-      <c r="G130" s="24" t="e">
+        <v>4187410907692.5</v>
+      </c>
+      <c r="G130" s="24">
         <f>(F130-E130)/E130</f>
-        <v>#DIV/0!</v>
+        <v>0.35545107575480522</v>
       </c>
       <c r="M130" s="23" t="b">
         <f t="shared" ref="M130:M151" si="4">IF(C130=D130,"igual")</f>
@@ -49377,9 +49505,18 @@
       <c r="D131" s="23">
         <v>171391821.66666666</v>
       </c>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="31"/>
+      <c r="E131" s="33">
+        <f xml:space="preserve"> 2771017.964*45 + (4001238.845/2 * 45^2) - (35774.104/3 * 45^3)</f>
+        <v>3089311729.9425001</v>
+      </c>
+      <c r="F131" s="33">
+        <f>3764594.424*45 + (4494724.389/2 * 45^2) - (17544.174/3 * 45^3)</f>
+        <v>4187410907.6925001</v>
+      </c>
+      <c r="G131" s="35">
+        <f>(F131-E131)/E131</f>
+        <v>0.35545107575480522</v>
+      </c>
       <c r="M131" s="23" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -49398,6 +49535,12 @@
       <c r="D132" s="23">
         <v>5630426.833333334</v>
       </c>
+      <c r="E132" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F132" s="32" t="s">
+        <v>71</v>
+      </c>
       <c r="M132" s="23" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -49434,6 +49577,12 @@
       <c r="D134" s="23">
         <v>63054108</v>
       </c>
+      <c r="E134" s="32">
+        <v>-52914994</v>
+      </c>
+      <c r="F134" s="32">
+        <v>-33820428</v>
+      </c>
       <c r="M134" s="23" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -49452,6 +49601,12 @@
       <c r="D135" s="23">
         <v>91847419.666666672</v>
       </c>
+      <c r="E135" s="32">
+        <v>5702324504</v>
+      </c>
+      <c r="F135" s="32">
+        <v>5907759378</v>
+      </c>
       <c r="M135" s="23" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -49470,6 +49625,12 @@
       <c r="D136" s="23">
         <v>113250121.66666666</v>
       </c>
+      <c r="E136" s="32">
+        <v>12013613031</v>
+      </c>
+      <c r="F136" s="32">
+        <v>6946080229</v>
+      </c>
       <c r="M136" s="23" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -49544,15 +49705,15 @@
       </c>
       <c r="E140" s="32">
         <f>E134/3*$G$2^3+E135/2*$G$2^2+E136*$G$2</f>
-        <v>0</v>
+        <v>4706923203945</v>
       </c>
       <c r="F140" s="32">
         <f>F134/3*$G$2^3+F135/2*$G$2^2+F136*$G$2</f>
-        <v>0</v>
-      </c>
-      <c r="G140" s="24" t="e">
+        <v>5266884480030</v>
+      </c>
+      <c r="G140" s="24">
         <f>(F140-E140)/E140</f>
-        <v>#DIV/0!</v>
+        <v>0.11896545828826807</v>
       </c>
       <c r="M140" s="23" t="b">
         <f t="shared" si="4"/>
@@ -49572,9 +49733,18 @@
       <c r="D141" s="23">
         <v>206736307</v>
       </c>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="31"/>
+      <c r="E141" s="33">
+        <f>12013613.031*45 + (5702324.504/2 * 45^2) - (52914.994/3 * 45^3)</f>
+        <v>4706923203.9449997</v>
+      </c>
+      <c r="F141" s="33">
+        <f>6946080.229*45 + (5907759.378/2 * 45^2) - (33820.428/3 * 45^3)</f>
+        <v>5266884480.0299997</v>
+      </c>
+      <c r="G141" s="35">
+        <f>(F141-E141)/E141</f>
+        <v>0.11896545828826809</v>
+      </c>
       <c r="M141" s="23" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -49593,6 +49763,12 @@
       <c r="D142" s="23">
         <v>7523110</v>
       </c>
+      <c r="E142" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F142" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="M142" s="23" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -49629,6 +49805,12 @@
       <c r="D144" s="23">
         <v>70730811.333333328</v>
       </c>
+      <c r="E144" s="32">
+        <v>-48286252</v>
+      </c>
+      <c r="F144" s="32">
+        <v>-33820428</v>
+      </c>
       <c r="M144" s="23" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -49647,6 +49829,12 @@
       <c r="D145" s="23">
         <v>92386486.333333343</v>
       </c>
+      <c r="E145" s="32">
+        <v>4766241431</v>
+      </c>
+      <c r="F145" s="32">
+        <v>5907759378</v>
+      </c>
       <c r="M145" s="23" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -49665,6 +49853,12 @@
       <c r="D146" s="23">
         <v>111196220.33333333</v>
       </c>
+      <c r="E146" s="32">
+        <v>18759245822</v>
+      </c>
+      <c r="F146" s="32">
+        <v>6946080229</v>
+      </c>
       <c r="M146" s="23" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -49719,6 +49913,9 @@
       <c r="D149" s="23">
         <v>163301779</v>
       </c>
+      <c r="G149" s="36" t="s">
+        <v>74</v>
+      </c>
       <c r="M149" s="23" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -49739,15 +49936,15 @@
       </c>
       <c r="E150" s="32">
         <f>E144/3*$G$2^3+E145/2*$G$2^2+E146*$G$2</f>
-        <v>0</v>
+        <v>4203290606377.5</v>
       </c>
       <c r="F150" s="32">
         <f>F144/3*$G$2^3+F145/2*$G$2^2+F146*$G$2</f>
-        <v>0</v>
-      </c>
-      <c r="G150" s="24" t="e">
+        <v>5266884480030</v>
+      </c>
+      <c r="G150" s="24">
         <f>(F150-E150)/E150</f>
-        <v>#DIV/0!</v>
+        <v>0.25303838664848621</v>
       </c>
       <c r="M150" s="23" t="b">
         <f t="shared" si="4"/>
@@ -49767,9 +49964,18 @@
       <c r="D151" s="23">
         <v>200217165.66666666</v>
       </c>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="31"/>
+      <c r="E151" s="33">
+        <f xml:space="preserve"> 18759245.822*45 + (4766241.431/2 * 45^2) - (48286.252/3 * 45^3)</f>
+        <v>4203290606.3774996</v>
+      </c>
+      <c r="F151" s="33">
+        <f xml:space="preserve"> 6946080.229*45 + (5907759.378/2 * 45^2) - (33820.428/3 * 45^3)</f>
+        <v>5266884480.0299997</v>
+      </c>
+      <c r="G151" s="35">
+        <f>(F151-E151)/E151</f>
+        <v>0.25303838664848627</v>
+      </c>
       <c r="M151" s="23" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -54874,21 +55080,4 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/doc/ACAP DG PH 7.6 31-03-21.xlsx
+++ b/doc/ACAP DG PH 7.6 31-03-21.xlsx
@@ -272,43 +272,51 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFF48E3A"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -687,11 +695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100211712"/>
-        <c:axId val="100225792"/>
+        <c:axId val="31225344"/>
+        <c:axId val="31411200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100211712"/>
+        <c:axId val="31225344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100225792"/>
+        <c:crossAx val="31411200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -708,7 +716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100225792"/>
+        <c:axId val="31411200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100211712"/>
+        <c:crossAx val="31225344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -932,11 +940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102844672"/>
-        <c:axId val="102854656"/>
+        <c:axId val="30549120"/>
+        <c:axId val="30550656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102844672"/>
+        <c:axId val="30549120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102854656"/>
+        <c:crossAx val="30550656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -953,7 +961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102854656"/>
+        <c:axId val="30550656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,7 +972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102844672"/>
+        <c:crossAx val="30549120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1177,11 +1185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102877824"/>
-        <c:axId val="103416192"/>
+        <c:axId val="30602752"/>
+        <c:axId val="30604288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102877824"/>
+        <c:axId val="30602752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103416192"/>
+        <c:crossAx val="30604288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1198,7 +1206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103416192"/>
+        <c:axId val="30604288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102877824"/>
+        <c:crossAx val="30602752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1422,11 +1430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103431168"/>
-        <c:axId val="103441152"/>
+        <c:axId val="30644096"/>
+        <c:axId val="30645632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103431168"/>
+        <c:axId val="30644096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103441152"/>
+        <c:crossAx val="30645632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1443,7 +1451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103441152"/>
+        <c:axId val="30645632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1462,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103431168"/>
+        <c:crossAx val="30644096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,11 +1675,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103488896"/>
-        <c:axId val="103494784"/>
+        <c:axId val="30673152"/>
+        <c:axId val="30674944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103488896"/>
+        <c:axId val="30673152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,7 +1688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103494784"/>
+        <c:crossAx val="30674944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1688,7 +1696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103494784"/>
+        <c:axId val="30674944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +1707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103488896"/>
+        <c:crossAx val="30673152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1912,11 +1920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103538688"/>
-        <c:axId val="103540224"/>
+        <c:axId val="30710400"/>
+        <c:axId val="30716288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103538688"/>
+        <c:axId val="30710400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,7 +1933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103540224"/>
+        <c:crossAx val="30716288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1933,7 +1941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103540224"/>
+        <c:axId val="30716288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103538688"/>
+        <c:crossAx val="30710400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2157,11 +2165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103584128"/>
-        <c:axId val="103585664"/>
+        <c:axId val="30743552"/>
+        <c:axId val="30786304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103584128"/>
+        <c:axId val="30743552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +2178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103585664"/>
+        <c:crossAx val="30786304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2178,7 +2186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103585664"/>
+        <c:axId val="30786304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2189,7 +2197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103584128"/>
+        <c:crossAx val="30743552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2402,11 +2410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100253056"/>
-        <c:axId val="100304000"/>
+        <c:axId val="75191808"/>
+        <c:axId val="75193344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100253056"/>
+        <c:axId val="75191808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,7 +2423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100304000"/>
+        <c:crossAx val="75193344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2423,7 +2431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100304000"/>
+        <c:axId val="75193344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2434,7 +2442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100253056"/>
+        <c:crossAx val="75191808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2652,11 +2660,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101646336"/>
-        <c:axId val="101647872"/>
+        <c:axId val="90145536"/>
+        <c:axId val="91474560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101646336"/>
+        <c:axId val="90145536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2665,7 +2673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101647872"/>
+        <c:crossAx val="91474560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2673,7 +2681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101647872"/>
+        <c:axId val="91474560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,7 +2692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101646336"/>
+        <c:crossAx val="90145536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2785,7 +2793,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2842,7 +2849,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2897,11 +2903,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101687680"/>
-        <c:axId val="101689216"/>
+        <c:axId val="121584256"/>
+        <c:axId val="30327168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101687680"/>
+        <c:axId val="121584256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,7 +2916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101689216"/>
+        <c:crossAx val="30327168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2918,7 +2924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101689216"/>
+        <c:axId val="30327168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2929,14 +2935,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101687680"/>
+        <c:crossAx val="121584256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3040,7 +3045,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -3097,7 +3101,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -3152,11 +3155,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102381824"/>
-        <c:axId val="102387712"/>
+        <c:axId val="30354816"/>
+        <c:axId val="30356608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102381824"/>
+        <c:axId val="30354816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3165,7 +3168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102387712"/>
+        <c:crossAx val="30356608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3173,7 +3176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102387712"/>
+        <c:axId val="30356608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3184,14 +3187,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102381824"/>
+        <c:crossAx val="30354816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3285,7 +3287,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -3342,7 +3343,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -3397,11 +3397,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102419456"/>
-        <c:axId val="102429440"/>
+        <c:axId val="30429184"/>
+        <c:axId val="30430720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102419456"/>
+        <c:axId val="30429184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3410,7 +3410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102429440"/>
+        <c:crossAx val="30430720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3418,7 +3418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102429440"/>
+        <c:axId val="30430720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,14 +3429,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102419456"/>
+        <c:crossAx val="30429184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3642,11 +3641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102464512"/>
-        <c:axId val="102486784"/>
+        <c:axId val="30453760"/>
+        <c:axId val="30455296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102464512"/>
+        <c:axId val="30453760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3655,7 +3654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102486784"/>
+        <c:crossAx val="30455296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3663,7 +3662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102486784"/>
+        <c:axId val="30455296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3674,7 +3673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102464512"/>
+        <c:crossAx val="30453760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3887,11 +3886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103624064"/>
-        <c:axId val="103629952"/>
+        <c:axId val="30478720"/>
+        <c:axId val="30480256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103624064"/>
+        <c:axId val="30478720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3900,7 +3899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103629952"/>
+        <c:crossAx val="30480256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3908,7 +3907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103629952"/>
+        <c:axId val="30480256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3919,7 +3918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103624064"/>
+        <c:crossAx val="30478720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4132,11 +4131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103669760"/>
-        <c:axId val="103671296"/>
+        <c:axId val="30520064"/>
+        <c:axId val="30521600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103669760"/>
+        <c:axId val="30520064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4145,7 +4144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103671296"/>
+        <c:crossAx val="30521600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4153,7 +4152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103671296"/>
+        <c:axId val="30521600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4164,7 +4163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103669760"/>
+        <c:crossAx val="30520064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4844,8 +4843,8 @@
   </sheetPr>
   <dimension ref="A1:AE122"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14220,11 +14219,12 @@
   <dimension ref="A1:I2057"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -46498,8 +46498,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D133" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/ACAP DG PH 7.6 31-03-21.xlsx
+++ b/doc/ACAP DG PH 7.6 31-03-21.xlsx
@@ -695,11 +695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="31225344"/>
-        <c:axId val="31411200"/>
+        <c:axId val="31224576"/>
+        <c:axId val="31409280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31225344"/>
+        <c:axId val="31224576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,7 +708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31411200"/>
+        <c:crossAx val="31409280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -716,7 +716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31411200"/>
+        <c:axId val="31409280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31225344"/>
+        <c:crossAx val="31224576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -940,11 +940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="30549120"/>
-        <c:axId val="30550656"/>
+        <c:axId val="30676480"/>
+        <c:axId val="30678016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30549120"/>
+        <c:axId val="30676480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30550656"/>
+        <c:crossAx val="30678016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -961,7 +961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30550656"/>
+        <c:axId val="30678016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30549120"/>
+        <c:crossAx val="30676480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1185,11 +1185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="30602752"/>
-        <c:axId val="30604288"/>
+        <c:axId val="30726016"/>
+        <c:axId val="30727552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30602752"/>
+        <c:axId val="30726016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30604288"/>
+        <c:crossAx val="30727552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1206,7 +1206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30604288"/>
+        <c:axId val="30727552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,7 +1217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30602752"/>
+        <c:crossAx val="30726016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1430,11 +1430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="30644096"/>
-        <c:axId val="30645632"/>
+        <c:axId val="30800128"/>
+        <c:axId val="30826496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30644096"/>
+        <c:axId val="30800128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,7 +1443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30645632"/>
+        <c:crossAx val="30826496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1451,7 +1451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30645632"/>
+        <c:axId val="30826496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1462,7 +1462,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30644096"/>
+        <c:crossAx val="30800128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1675,11 +1675,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="30673152"/>
-        <c:axId val="30674944"/>
+        <c:axId val="30853760"/>
+        <c:axId val="30855552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30673152"/>
+        <c:axId val="30853760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30674944"/>
+        <c:crossAx val="30855552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1696,7 +1696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30674944"/>
+        <c:axId val="30855552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,7 +1707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30673152"/>
+        <c:crossAx val="30853760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1920,11 +1920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="30710400"/>
-        <c:axId val="30716288"/>
+        <c:axId val="30870528"/>
+        <c:axId val="30929664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30710400"/>
+        <c:axId val="30870528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,7 +1933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30716288"/>
+        <c:crossAx val="30929664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1941,7 +1941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30716288"/>
+        <c:axId val="30929664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +1952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30710400"/>
+        <c:crossAx val="30870528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2165,11 +2165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="30743552"/>
-        <c:axId val="30786304"/>
+        <c:axId val="30940544"/>
+        <c:axId val="30954624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30743552"/>
+        <c:axId val="30940544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +2178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30786304"/>
+        <c:crossAx val="30954624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2186,7 +2186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30786304"/>
+        <c:axId val="30954624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2197,7 +2197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30743552"/>
+        <c:crossAx val="30940544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2793,6 +2793,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2849,6 +2850,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2904,7 +2906,7 @@
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="121584256"/>
-        <c:axId val="30327168"/>
+        <c:axId val="163320192"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="121584256"/>
@@ -2916,7 +2918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30327168"/>
+        <c:crossAx val="163320192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2924,7 +2926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30327168"/>
+        <c:axId val="163320192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,6 +2944,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3045,6 +3048,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -3101,6 +3105,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -3155,11 +3160,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="30354816"/>
-        <c:axId val="30356608"/>
+        <c:axId val="30522752"/>
+        <c:axId val="30524544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30354816"/>
+        <c:axId val="30522752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3168,7 +3173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30356608"/>
+        <c:crossAx val="30524544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3176,7 +3181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30356608"/>
+        <c:axId val="30524544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3187,13 +3192,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30354816"/>
+        <c:crossAx val="30522752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3287,6 +3293,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -3343,6 +3350,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -3397,11 +3405,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="30429184"/>
-        <c:axId val="30430720"/>
+        <c:axId val="30548352"/>
+        <c:axId val="30549888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30429184"/>
+        <c:axId val="30548352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3410,7 +3418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30430720"/>
+        <c:crossAx val="30549888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3418,7 +3426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30430720"/>
+        <c:axId val="30549888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,13 +3437,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30429184"/>
+        <c:crossAx val="30548352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3641,11 +3650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="30453760"/>
-        <c:axId val="30455296"/>
+        <c:axId val="30589696"/>
+        <c:axId val="30591232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30453760"/>
+        <c:axId val="30589696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3654,7 +3663,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30455296"/>
+        <c:crossAx val="30591232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3662,7 +3671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30455296"/>
+        <c:axId val="30591232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3673,7 +3682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30453760"/>
+        <c:crossAx val="30589696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3886,11 +3895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="30478720"/>
-        <c:axId val="30480256"/>
+        <c:axId val="30618368"/>
+        <c:axId val="30619904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30478720"/>
+        <c:axId val="30618368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3899,7 +3908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30480256"/>
+        <c:crossAx val="30619904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3907,7 +3916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30480256"/>
+        <c:axId val="30619904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3918,7 +3927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30478720"/>
+        <c:crossAx val="30618368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4131,11 +4140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="30520064"/>
-        <c:axId val="30521600"/>
+        <c:axId val="30655616"/>
+        <c:axId val="30657152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30520064"/>
+        <c:axId val="30655616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4144,7 +4153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30521600"/>
+        <c:crossAx val="30657152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4152,7 +4161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30521600"/>
+        <c:axId val="30657152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4163,7 +4172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30520064"/>
+        <c:crossAx val="30655616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -46498,8 +46507,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
